--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_VOC.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_VOC.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_VOC</t>
+  </si>
+  <si>
+    <t>02_taxi_VOC</t>
+  </si>
+  <si>
+    <t>03_van_VOC</t>
+  </si>
+  <si>
+    <t>04_bus_VOC</t>
+  </si>
+  <si>
+    <t>05_LightTruck_VOC</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_VOC</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_VOC</t>
+  </si>
+  <si>
+    <t>Total_VOC (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1308 +397,1432 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_VOC</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_VOC</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_VOC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_VOC</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_VOC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_VOC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_VOC (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024101513</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>240.634190699436</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.03462618783436533</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0.03738784599018585</v>
+      </c>
+      <c r="D2">
         <v>11.13470082404418</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>2.576295057286278</v>
+      </c>
+      <c r="F2">
         <v>3.648211330754524</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>30.32456819407469</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.7321240640289819</v>
       </c>
-      <c r="H2" t="n">
-        <v>286.5084213001728</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>289.0874780156149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024101514</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>248.5317629327063</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.03823308240044505</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>0.04128241328083021</v>
+      </c>
+      <c r="D3">
         <v>11.30868052441988</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>2.576295057286278</v>
+      </c>
+      <c r="F3">
         <v>3.5211591948576</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>24.08127474235343</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.6758068283344447</v>
       </c>
-      <c r="H3" t="n">
-        <v>288.1569173050721</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>290.7362616932388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024101515</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>251.7552618034287</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.03534756674758127</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>0.03816675944831473</v>
+      </c>
+      <c r="D4">
         <v>11.48266022479556</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>2.433167554103708</v>
+      </c>
+      <c r="F4">
         <v>3.285205228191885</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>24.08127474235343</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.6194895926399078</v>
       </c>
-      <c r="H4" t="n">
-        <v>291.2592391581571</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>293.6952259049615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024101516</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>272.2244796325165</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.02957653544185372</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0.03193545178328375</v>
+      </c>
+      <c r="D5">
         <v>12.00459932592263</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>4.150697592294558</v>
+      </c>
+      <c r="F5">
         <v>3.230754312807489</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>23.18937567782183</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.5631723569453706</v>
       </c>
-      <c r="H5" t="n">
-        <v>311.2419578414557</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>315.3950143500917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024101517</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>310.7452911376507</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.02813377761542183</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>0.030377624867026</v>
+      </c>
+      <c r="D6">
         <v>10.96072112366848</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>9.160160203684546</v>
+      </c>
+      <c r="F6">
         <v>2.722545769219795</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>11.59468783891091</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.5068551212508335</v>
       </c>
-      <c r="H6" t="n">
-        <v>336.5582347683162</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>345.7206388192523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024101518</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>331.6980337973471</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.01082068369823917</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>0.01168370187193308</v>
+      </c>
+      <c r="D7">
         <v>7.481127116154687</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>9.589542713232257</v>
+      </c>
+      <c r="F7">
         <v>1.7605795974288</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>11.59468783891091</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.5631723569453706</v>
       </c>
-      <c r="H7" t="n">
-        <v>353.1084213904851</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>362.6988271218912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024101519</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>252.3999615775732</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.01370619935110294</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>0.01479935570444856</v>
+      </c>
+      <c r="D8">
         <v>10.26480232216573</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>5.72510012730284</v>
+      </c>
+      <c r="F8">
         <v>1.306821969225501</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>10.70278877437932</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.1126344713890741</v>
       </c>
-      <c r="H8" t="n">
-        <v>274.8007153140838</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>280.52690859774</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024101520</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>200.985154589549</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.01442757826431889</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0.01557826916257743</v>
+      </c>
+      <c r="D9">
         <v>6.43724891390054</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>10.8776902418754</v>
+      </c>
+      <c r="F9">
         <v>0.5989600692283548</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>12.48658690344253</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.1689517070836112</v>
       </c>
-      <c r="H9" t="n">
-        <v>220.6913297614684</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>231.570170694242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024101521</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>166.4937166728181</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.007213789132159446</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0.007789134581288717</v>
+      </c>
+      <c r="D10">
         <v>5.3933707116464</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>5.4388451209377</v>
+      </c>
+      <c r="F10">
         <v>0.5626594589720905</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>15.16228409703735</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H10" t="n">
-        <v>187.6755619653007</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>193.1149824316875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024101522</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>118.3024085555164</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.01442757826431889</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>0.01557826916257743</v>
+      </c>
+      <c r="D11">
         <v>2.783675206011046</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>2.576295057286278</v>
+      </c>
+      <c r="F11">
         <v>0.6171103743564865</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>10.70278877437932</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.2252689427781482</v>
       </c>
-      <c r="H11" t="n">
-        <v>132.6456794313057</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>135.2231251794903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024101523</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>72.68989953479283</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.01442757826431889</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>0.01557826916257743</v>
+      </c>
+      <c r="D12">
         <v>1.565817303381213</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>1.288147528643139</v>
+      </c>
+      <c r="F12">
         <v>0.3448557974345072</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>8.027091580784488</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.1126344713890741</v>
       </c>
-      <c r="H12" t="n">
-        <v>82.75472626604642</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>84.04402448558781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024101600</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>51.57598193156026</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.02164136739647833</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>0.02336740374386615</v>
+      </c>
+      <c r="D13">
         <v>1.739797003756903</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>0.8587650190954262</v>
+      </c>
+      <c r="F13">
         <v>0.3630061025626393</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>9.810889709847697</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>63.51131611512398</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>64.3718071705668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024101601</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>34.00791308612256</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.02308412522291022</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>0.0249252306601239</v>
+      </c>
+      <c r="D14">
         <v>1.043878202254141</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>0.4293825095477131</v>
+      </c>
+      <c r="F14">
         <v>0.3993067128189031</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>14.27038503250574</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H14" t="n">
-        <v>49.8008843946188</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>50.23210800960373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024101602</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>25.94916590931627</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.01731309391718266</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0.01869392299509293</v>
+      </c>
+      <c r="D15">
         <v>1.913776704132594</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>0.5725100127302841</v>
+      </c>
+      <c r="F15">
         <v>0.3085551871782433</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>12.48658690344253</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.1126344713890741</v>
       </c>
-      <c r="H15" t="n">
-        <v>40.78803226937589</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>41.36192311118408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024101603</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>23.69271669981051</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.006492410218943499</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>0.007010221123159847</v>
+      </c>
+      <c r="D16">
         <v>2.261736104883973</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.4293825095477131</v>
+      </c>
+      <c r="F16">
         <v>0.2904048820501113</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>10.70278877437932</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H16" t="n">
-        <v>37.01045610703738</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>37.44035642748932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024101604</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>47.7077832866933</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.009377925871807278</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>0.01012587495567533</v>
+      </c>
+      <c r="D17">
         <v>3.479594007513806</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.4293825095477131</v>
+      </c>
+      <c r="F17">
         <v>0.6715612897408826</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>16.05418316156898</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17">
         <v>0.1689517070836112</v>
       </c>
-      <c r="H17" t="n">
-        <v>68.09145137847239</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>68.52158183710397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024101605</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>105.086063185554</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.005771031305727556</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>0.006231307665030975</v>
+      </c>
+      <c r="D18">
         <v>5.567350412022092</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>6.87012015276341</v>
+      </c>
+      <c r="F18">
         <v>1.542775935891217</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>29.43266912954311</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>0.1689517070836112</v>
       </c>
-      <c r="H18" t="n">
-        <v>141.8035814013998</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>148.6741618305225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024101606</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>185.0288351794726</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.01009930478502322</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>0.01090478841380421</v>
+      </c>
+      <c r="D19">
         <v>10.26480232216573</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>14.16962281507453</v>
+      </c>
+      <c r="F19">
         <v>2.613643938451003</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>52.62204480736496</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>0.5631723569453706</v>
       </c>
-      <c r="H19" t="n">
-        <v>251.1025979091847</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>265.273026207888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024101607</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>250.6270371986758</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.01082068369823917</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0.01168370187193308</v>
+      </c>
+      <c r="D20">
         <v>9.046944419535892</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>12.30896527370111</v>
+      </c>
+      <c r="F20">
         <v>2.541042717938474</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>45.48685229111206</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.5631723569453706</v>
       </c>
-      <c r="H20" t="n">
-        <v>308.2758696679059</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>320.5856979597806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024101608</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>198.7287053800433</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.01154206261145511</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0.01246261533006195</v>
+      </c>
+      <c r="D21">
         <v>4.523472209767946</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>5.152590114572555</v>
+      </c>
+      <c r="F21">
         <v>1.996533564094516</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>33.00026538766953</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.2252689427781482</v>
       </c>
-      <c r="H21" t="n">
-        <v>238.4857875469648</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>243.639298214256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024101609</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>235.3154175627438</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.03606894566079721</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>0.03894567290644359</v>
+      </c>
+      <c r="D22">
         <v>14.09235573043091</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>5.29571761775513</v>
+      </c>
+      <c r="F22">
         <v>3.775263466651447</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>59.7572373236178</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.2252689427781482</v>
       </c>
-      <c r="H22" t="n">
-        <v>313.2016119718829</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>318.5002063168836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024101610</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>211.4615259193973</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.03751170348722911</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>0.04050349982270134</v>
+      </c>
+      <c r="D23">
         <v>11.48266022479556</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>3.291932573199134</v>
+      </c>
+      <c r="F23">
         <v>4.083818653829691</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>45.48685229111206</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.2815861784726853</v>
       </c>
-      <c r="H23" t="n">
-        <v>272.8339549710946</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>276.1288793406292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024101611</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>221.9378972492454</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.03751170348722911</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>0.04050349982270134</v>
+      </c>
+      <c r="D24">
         <v>10.26480232216573</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>3.148805070016563</v>
+      </c>
+      <c r="F24">
         <v>3.811564076907711</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>40.13545790392246</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.5631723569453706</v>
       </c>
-      <c r="H24" t="n">
-        <v>276.7504056126739</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>279.9022024790259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024101612</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>223.8719965716789</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.02885515652863778</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>0.03115653832515487</v>
+      </c>
+      <c r="D25">
         <v>10.7867414232928</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>3.005677566833993</v>
+      </c>
+      <c r="F25">
         <v>3.012950651269906</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>37.45976071032758</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.3942206498617594</v>
       </c>
-      <c r="H25" t="n">
-        <v>275.5545251629596</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>278.5625041115901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024101613</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>230.3189943131239</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.03101929326828561</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>0.03349327869954149</v>
+      </c>
+      <c r="D26">
         <v>9.568883520662963</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>1.717530038190852</v>
+      </c>
+      <c r="F26">
         <v>3.847864687163976</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>49.9463476137701</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.4505378855562964</v>
       </c>
-      <c r="H26" t="n">
-        <v>294.1636473135455</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>295.8836513371676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024101614</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>241.7624153041889</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.02452688304934211</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>0.02648305757638164</v>
+      </c>
+      <c r="D27">
         <v>13.39643692892815</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>3.435060076381705</v>
+      </c>
+      <c r="F27">
         <v>3.230754312807489</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>19.62177941969539</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.3942206498617594</v>
       </c>
-      <c r="H27" t="n">
-        <v>278.430133498531</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>281.8671497494398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024101615</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>234.0260180144548</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.03751170348722911</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0.04050349982270134</v>
+      </c>
+      <c r="D28">
         <v>13.22245722855247</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>3.148805070016563</v>
+      </c>
+      <c r="F28">
         <v>3.049251261526169</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>40.13545790392246</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.9010757711125928</v>
       </c>
-      <c r="H28" t="n">
-        <v>291.3717718830557</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>294.5235687494077</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024101616</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>257.3963848271932</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.0324620510947175</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>0.03505110561579923</v>
+      </c>
+      <c r="D29">
         <v>12.87449782780108</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>4.150697592294558</v>
+      </c>
+      <c r="F29">
         <v>3.031100956398037</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>24.08127474235343</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>1.407930892363427</v>
       </c>
-      <c r="H29" t="n">
-        <v>298.8236512972039</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>302.9769379440195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024101617</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>322.5110620157878</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.01587033609075078</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>0.01713609607883518</v>
+      </c>
+      <c r="D30">
         <v>8.177045917657439</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>6.87012015276341</v>
+      </c>
+      <c r="F30">
         <v>2.631794243579133</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>18.72988035516379</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.7321240640289819</v>
       </c>
-      <c r="H30" t="n">
-        <v>352.797776932308</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>359.6691628450595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024101618</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>335.5662324422141</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.02091998848326239</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>0.02258849028573728</v>
+      </c>
+      <c r="D31">
         <v>10.26480232216573</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>10.01892522277997</v>
+      </c>
+      <c r="F31">
         <v>2.014683869222647</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>16.94608222610058</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.2252689427781482</v>
       </c>
-      <c r="H31" t="n">
-        <v>365.0379897909646</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>375.058583515547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024101619</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>265.4551320039994</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.01514895717753483</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>0.01635718262070631</v>
+      </c>
+      <c r="D32">
         <v>8.698985018784514</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>6.726992649580839</v>
+      </c>
+      <c r="F32">
         <v>1.415723799994293</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>13.37848596797414</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.5068551212508335</v>
       </c>
-      <c r="H32" t="n">
-        <v>289.4703308691807</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>296.1985317442047</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024101620</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>222.2602471363175</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.02164136739647833</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>0.02336740374386615</v>
+      </c>
+      <c r="D33">
         <v>6.78520831465192</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>9.160160203684546</v>
+      </c>
+      <c r="F33">
         <v>0.907515256406598</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>14.27038503250574</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H33" t="n">
-        <v>244.3013143429728</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>253.4632005830047</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024101621</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>182.6112110264307</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.01442757826431889</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>0.01557826916257743</v>
+      </c>
+      <c r="D34">
         <v>4.523472209767946</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>4.436952598659703</v>
+      </c>
+      <c r="F34">
         <v>0.5808097641002226</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>7.135192516252872</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.2252689427781482</v>
       </c>
-      <c r="H34" t="n">
-        <v>195.0903820375943</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>199.5284853271522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024101622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>129.1011297724368</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.01370619935110294</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>0.01479935570444856</v>
+      </c>
+      <c r="D35">
         <v>4.349492509392257</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>2.433167554103708</v>
+      </c>
+      <c r="F35">
         <v>0.4356073230751671</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>11.59468783891091</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H35" t="n">
-        <v>145.5509408788608</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>147.9852015893179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024101623</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>81.2321715422075</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.02524826196255806</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>0.02726197103451051</v>
+      </c>
+      <c r="D36">
         <v>1.739797003756903</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>1.288147528643139</v>
+      </c>
+      <c r="F36">
         <v>0.3630061025626393</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>8.027091580784488</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H36" t="n">
-        <v>91.44363172696862</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>92.7337929646837</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024101700</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>61.73000337433623</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.03029791435506966</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>0.03271436524141262</v>
+      </c>
+      <c r="D37">
         <v>1.739797003756903</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>0.5725100127302841</v>
+      </c>
+      <c r="F37">
         <v>0.3085551871782433</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>8.918990645316093</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.2252689427781482</v>
       </c>
-      <c r="H37" t="n">
-        <v>72.95291306772069</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>73.52783953133732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024101701</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>34.65261286026708</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.02091998848326239</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>0.02258849028573728</v>
+      </c>
+      <c r="D38">
         <v>1.391837603005523</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>0.2862550063651421</v>
+      </c>
+      <c r="F38">
         <v>0.3630061025626393</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>8.918990645316093</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.1126344713890741</v>
       </c>
-      <c r="H38" t="n">
-        <v>45.46000167102366</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>45.74792517919128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024101702</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>23.20919186920213</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.01514895717753483</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>0.01635718262070631</v>
+      </c>
+      <c r="D39">
         <v>2.087756404508283</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>0.143127503182571</v>
+      </c>
+      <c r="F39">
         <v>0.3448557974345072</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>8.918990645316093</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H39" t="n">
-        <v>34.63226090933308</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>34.77659663795883</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024101703</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>23.37036681273825</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.007935168045375389</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>0.008568048039417589</v>
+      </c>
+      <c r="D40">
         <v>1.913776704132594</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.4293825095477131</v>
+      </c>
+      <c r="F40">
         <v>0.3811564076907711</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>11.59468783891091</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.1126344713890741</v>
       </c>
-      <c r="H40" t="n">
-        <v>37.38055740290697</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>37.81057279244874</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024101704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>43.6784096982901</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.007935168045375389</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>0.008568048039417589</v>
+      </c>
+      <c r="D41">
         <v>2.435715805259664</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.715637515912855</v>
+      </c>
+      <c r="F41">
         <v>0.9256655615347297</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>17.83798129063219</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>0.05631723569453705</v>
       </c>
-      <c r="H41" t="n">
-        <v>64.94202475945659</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>65.65829515536348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024101705</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>113.4671602494326</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.007935168045375389</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>0.008568048039417589</v>
+      </c>
+      <c r="D42">
         <v>4.523472209767946</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>6.011355133667985</v>
+      </c>
+      <c r="F42">
         <v>1.833180817941328</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>33.00026538766953</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>0.4505378855562964</v>
       </c>
-      <c r="H42" t="n">
-        <v>153.2825517184131</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>159.2945397320751</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024101706</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>168.91134082586</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.003606894566079723</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>0.003894567290644359</v>
+      </c>
+      <c r="D43">
         <v>6.43724891390054</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>11.73645526097082</v>
+      </c>
+      <c r="F43">
         <v>2.23248753076023</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>66.00053077533906</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>0.5068551212508335</v>
       </c>
-      <c r="H43" t="n">
-        <v>244.0920700616767</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>255.8288129953721</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024101707</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>270.4515552536192</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.01226344152467105</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>0.01324152878819082</v>
+      </c>
+      <c r="D44">
         <v>8.177045917657439</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>13.16773029279653</v>
+      </c>
+      <c r="F44">
         <v>2.649944548707266</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>48.16254948470687</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>1.013710242501667</v>
       </c>
-      <c r="H44" t="n">
-        <v>330.4670688887171</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>343.6357772687771</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024101708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>274.4809288420224</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.02524826196255806</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0.02726197103451051</v>
+      </c>
+      <c r="D45">
         <v>9.916842921414347</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>6.87012015276341</v>
+      </c>
+      <c r="F45">
         <v>3.031100956398037</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>54.40584293642816</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.4505378855562964</v>
       </c>
-      <c r="H45" t="n">
-        <v>342.3105018037818</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>349.1826356656172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024101709</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>235.6377674498161</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.038954461313661</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>0.04206132673895908</v>
+      </c>
+      <c r="D46">
         <v>15.31021363306075</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>6.297610140033126</v>
+      </c>
+      <c r="F46">
         <v>3.321505838448149</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>57.97343919455462</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.4505378855562964</v>
       </c>
-      <c r="H46" t="n">
-        <v>312.7324184627496</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>319.0331354682079</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024101710</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>175.358338567305</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.02957653544185372</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>0.03193545178328375</v>
+      </c>
+      <c r="D47">
         <v>8.872964719160203</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>2.71942256046885</v>
+      </c>
+      <c r="F47">
         <v>2.940349430757377</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>39.24355883939079</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.2815861784726853</v>
       </c>
-      <c r="H47" t="n">
-        <v>226.7263742705279</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>229.4481557473381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024101711</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>184.0617855182557</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.02957653544185372</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>0.03193545178328375</v>
+      </c>
+      <c r="D48">
         <v>7.82908651690606</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>2.71942256046885</v>
+      </c>
+      <c r="F48">
         <v>2.758846379476057</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>34.78406351673276</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.5631723569453706</v>
       </c>
-      <c r="H48" t="n">
-        <v>230.0265308237578</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>232.748312300568</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024101712</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>185.6735349536171</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.02308412522291022</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>0.0249252306601239</v>
+      </c>
+      <c r="D49">
         <v>8.35102561803313</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>2.576295057286278</v>
+      </c>
+      <c r="F49">
         <v>2.178036615375836</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>32.10836632313795</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.3942206498617594</v>
       </c>
-      <c r="H49" t="n">
-        <v>228.7282682852486</v>
+      <c r="I49">
+        <v>231.3064044479721</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_VOC.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>240.634190699436</v>
+        <v>348.8149529530085</v>
       </c>
       <c r="C2">
-        <v>0.03738784599018585</v>
+        <v>0.05419612110055635</v>
       </c>
       <c r="D2">
-        <v>11.13470082404418</v>
+        <v>16.14047502059273</v>
       </c>
       <c r="E2">
-        <v>2.576295057286278</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F2">
-        <v>3.648211330754524</v>
+        <v>5.288320250754603</v>
       </c>
       <c r="G2">
-        <v>30.32456819407469</v>
+        <v>43.95743928654137</v>
       </c>
       <c r="H2">
-        <v>0.7321240640289819</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I2">
-        <v>289.0874780156149</v>
+        <v>419.0511529148088</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>248.5317629327063</v>
+        <v>360.2629989641922</v>
       </c>
       <c r="C3">
-        <v>0.04128241328083021</v>
+        <v>0.05984155038186432</v>
       </c>
       <c r="D3">
-        <v>11.30868052441988</v>
+        <v>16.3926699427895</v>
       </c>
       <c r="E3">
-        <v>2.576295057286278</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F3">
-        <v>3.5211591948576</v>
+        <v>5.104149893763148</v>
       </c>
       <c r="G3">
-        <v>24.08127474235343</v>
+        <v>34.90737825695931</v>
       </c>
       <c r="H3">
-        <v>0.6758068283344447</v>
+        <v>0.9796260720291473</v>
       </c>
       <c r="I3">
-        <v>290.7362616932388</v>
+        <v>421.4411723848945</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>251.7552618034287</v>
+        <v>364.935670805492</v>
       </c>
       <c r="C4">
-        <v>0.03816675944831473</v>
+        <v>0.05532520695681795</v>
       </c>
       <c r="D4">
-        <v>11.48266022479556</v>
+        <v>16.64486486498625</v>
       </c>
       <c r="E4">
-        <v>2.433167554103708</v>
+        <v>3.527035054513811</v>
       </c>
       <c r="F4">
-        <v>3.285205228191885</v>
+        <v>4.762119230779019</v>
       </c>
       <c r="G4">
-        <v>24.08127474235343</v>
+        <v>34.90737825695931</v>
       </c>
       <c r="H4">
-        <v>0.6194895926399078</v>
+        <v>0.8979905660267186</v>
       </c>
       <c r="I4">
-        <v>293.6952259049615</v>
+        <v>425.7303839857138</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>272.2244796325165</v>
+        <v>394.6071369977438</v>
       </c>
       <c r="C5">
-        <v>0.03193545178328375</v>
+        <v>0.04629252010672522</v>
       </c>
       <c r="D5">
-        <v>12.00459932592263</v>
+        <v>17.40144963157654</v>
       </c>
       <c r="E5">
-        <v>4.150697592294558</v>
+        <v>6.016706857700027</v>
       </c>
       <c r="F5">
-        <v>3.230754312807489</v>
+        <v>4.683189077782683</v>
       </c>
       <c r="G5">
-        <v>23.18937567782183</v>
+        <v>33.61451239559047</v>
       </c>
       <c r="H5">
-        <v>0.5631723569453706</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I5">
-        <v>315.3950143500917</v>
+        <v>457.1856425405245</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>310.7452911376507</v>
+        <v>450.4455655012729</v>
       </c>
       <c r="C6">
-        <v>0.030377624867026</v>
+        <v>0.04403434839420205</v>
       </c>
       <c r="D6">
-        <v>10.96072112366848</v>
+        <v>15.88828009839598</v>
       </c>
       <c r="E6">
-        <v>9.160160203684546</v>
+        <v>13.27824961699316</v>
       </c>
       <c r="F6">
-        <v>2.722545769219795</v>
+        <v>3.946507649816867</v>
       </c>
       <c r="G6">
-        <v>11.59468783891091</v>
+        <v>16.80725619779523</v>
       </c>
       <c r="H6">
-        <v>0.5068551212508335</v>
+        <v>0.7347195540218606</v>
       </c>
       <c r="I6">
-        <v>345.7206388192523</v>
+        <v>501.1446129666901</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>331.6980337973471</v>
+        <v>480.8179324697197</v>
       </c>
       <c r="C7">
-        <v>0.01168370187193308</v>
+        <v>0.01693628784392387</v>
       </c>
       <c r="D7">
-        <v>7.481127116154687</v>
+        <v>10.84438165446074</v>
       </c>
       <c r="E7">
-        <v>9.589542713232257</v>
+        <v>13.90066756778972</v>
       </c>
       <c r="F7">
-        <v>1.7605795974288</v>
+        <v>2.552074946881574</v>
       </c>
       <c r="G7">
-        <v>11.59468783891091</v>
+        <v>16.80725619779523</v>
       </c>
       <c r="H7">
-        <v>0.5631723569453706</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I7">
-        <v>362.6988271218912</v>
+        <v>525.7556041845152</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>252.3999615775732</v>
+        <v>365.8702051737516</v>
       </c>
       <c r="C8">
-        <v>0.01479935570444856</v>
+        <v>0.02145263126897022</v>
       </c>
       <c r="D8">
-        <v>10.26480232216573</v>
+        <v>14.87950040960893</v>
       </c>
       <c r="E8">
-        <v>5.72510012730284</v>
+        <v>8.298906010620723</v>
       </c>
       <c r="F8">
-        <v>1.306821969225501</v>
+        <v>1.894323671912096</v>
       </c>
       <c r="G8">
-        <v>10.70278877437932</v>
+        <v>15.51439033642637</v>
       </c>
       <c r="H8">
-        <v>0.1126344713890741</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I8">
-        <v>280.52690859774</v>
+        <v>406.6420492455936</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>200.985154589549</v>
+        <v>291.3410893050245</v>
       </c>
       <c r="C9">
-        <v>0.01557826916257743</v>
+        <v>0.02258171712523182</v>
       </c>
       <c r="D9">
-        <v>6.43724891390054</v>
+        <v>9.33121212128018</v>
       </c>
       <c r="E9">
-        <v>10.8776902418754</v>
+        <v>15.76792142017938</v>
       </c>
       <c r="F9">
-        <v>0.5989600692283548</v>
+        <v>0.8682316829597108</v>
       </c>
       <c r="G9">
-        <v>12.48658690344253</v>
+        <v>18.10012205916408</v>
       </c>
       <c r="H9">
-        <v>0.1689517070836112</v>
+        <v>0.2449065180072868</v>
       </c>
       <c r="I9">
-        <v>231.570170694242</v>
+        <v>335.6760648237404</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>166.4937166728181</v>
+        <v>241.3435006031197</v>
       </c>
       <c r="C10">
-        <v>0.007789134581288717</v>
+        <v>0.01129085856261591</v>
       </c>
       <c r="D10">
-        <v>5.3933707116464</v>
+        <v>7.818042588099604</v>
       </c>
       <c r="E10">
-        <v>5.4388451209377</v>
+        <v>7.88396071008969</v>
       </c>
       <c r="F10">
-        <v>0.5626594589720905</v>
+        <v>0.8156115809621522</v>
       </c>
       <c r="G10">
-        <v>15.16228409703735</v>
+        <v>21.97871964327069</v>
       </c>
       <c r="H10">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I10">
-        <v>193.1149824316875</v>
+        <v>279.9327614901069</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>118.3024085555164</v>
+        <v>171.487056575692</v>
       </c>
       <c r="C11">
-        <v>0.01557826916257743</v>
+        <v>0.02258171712523182</v>
       </c>
       <c r="D11">
-        <v>2.783675206011046</v>
+        <v>4.035118755148183</v>
       </c>
       <c r="E11">
-        <v>2.576295057286278</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F11">
-        <v>0.6171103743564865</v>
+        <v>0.8945417339584898</v>
       </c>
       <c r="G11">
-        <v>10.70278877437932</v>
+        <v>15.51439033642637</v>
       </c>
       <c r="H11">
-        <v>0.2252689427781482</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I11">
-        <v>135.2231251794903</v>
+        <v>196.0147388471393</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>72.68989953479283</v>
+        <v>105.368750021304</v>
       </c>
       <c r="C12">
-        <v>0.01557826916257743</v>
+        <v>0.02258171712523182</v>
       </c>
       <c r="D12">
-        <v>1.565817303381213</v>
+        <v>2.269754299770854</v>
       </c>
       <c r="E12">
-        <v>1.288147528643139</v>
+        <v>1.867253852389663</v>
       </c>
       <c r="F12">
-        <v>0.3448557974345072</v>
+        <v>0.4998909689768032</v>
       </c>
       <c r="G12">
-        <v>8.027091580784488</v>
+        <v>11.63579275231976</v>
       </c>
       <c r="H12">
-        <v>0.1126344713890741</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I12">
-        <v>84.04402448558781</v>
+        <v>121.8272946238912</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>51.57598193156026</v>
+        <v>74.76274946079221</v>
       </c>
       <c r="C13">
-        <v>0.02336740374386615</v>
+        <v>0.03387257568784773</v>
       </c>
       <c r="D13">
-        <v>1.739797003756903</v>
+        <v>2.521949221967614</v>
       </c>
       <c r="E13">
-        <v>0.8587650190954262</v>
+        <v>1.244835901593109</v>
       </c>
       <c r="F13">
-        <v>0.3630061025626393</v>
+        <v>0.5262010199755821</v>
       </c>
       <c r="G13">
-        <v>9.810889709847697</v>
+        <v>14.2215244750575</v>
       </c>
       <c r="I13">
-        <v>64.3718071705668</v>
+        <v>93.31113265507388</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>34.00791308612256</v>
+        <v>49.29668792570985</v>
       </c>
       <c r="C14">
-        <v>0.0249252306601239</v>
+        <v>0.03613074740037091</v>
       </c>
       <c r="D14">
-        <v>1.043878202254141</v>
+        <v>1.513169533180569</v>
       </c>
       <c r="E14">
-        <v>0.4293825095477131</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F14">
-        <v>0.3993067128189031</v>
+        <v>0.5788211219731407</v>
       </c>
       <c r="G14">
-        <v>14.27038503250574</v>
+        <v>20.6858537819018</v>
       </c>
       <c r="H14">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I14">
-        <v>50.23210800960373</v>
+        <v>72.81471656696472</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>25.94916590931627</v>
+        <v>37.61500832246106</v>
       </c>
       <c r="C15">
-        <v>0.01869392299509293</v>
+        <v>0.02709806055027818</v>
       </c>
       <c r="D15">
-        <v>1.913776704132594</v>
+        <v>2.774144144164376</v>
       </c>
       <c r="E15">
-        <v>0.5725100127302841</v>
+        <v>0.8298906010620722</v>
       </c>
       <c r="F15">
-        <v>0.3085551871782433</v>
+        <v>0.4472708669792449</v>
       </c>
       <c r="G15">
-        <v>12.48658690344253</v>
+        <v>18.10012205916408</v>
       </c>
       <c r="H15">
-        <v>0.1126344713890741</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I15">
-        <v>41.36192311118408</v>
+        <v>59.95680506638597</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>23.69271669981051</v>
+        <v>34.34413803355141</v>
       </c>
       <c r="C16">
-        <v>0.007010221123159847</v>
+        <v>0.01016177270635432</v>
       </c>
       <c r="D16">
-        <v>2.261736104883973</v>
+        <v>3.278533988557899</v>
       </c>
       <c r="E16">
-        <v>0.4293825095477131</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F16">
-        <v>0.2904048820501113</v>
+        <v>0.420960815980466</v>
       </c>
       <c r="G16">
-        <v>10.70278877437932</v>
+        <v>15.51439033642637</v>
       </c>
       <c r="H16">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I16">
-        <v>37.44035642748932</v>
+        <v>54.27223840402147</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>47.7077832866933</v>
+        <v>69.15554325123276</v>
       </c>
       <c r="C17">
-        <v>0.01012587495567533</v>
+        <v>0.01467811613140068</v>
       </c>
       <c r="D17">
-        <v>3.479594007513806</v>
+        <v>5.043898443935229</v>
       </c>
       <c r="E17">
-        <v>0.4293825095477131</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F17">
-        <v>0.6715612897408826</v>
+        <v>0.9734718869548276</v>
       </c>
       <c r="G17">
-        <v>16.05418316156898</v>
+        <v>23.27158550463953</v>
       </c>
       <c r="H17">
-        <v>0.1689517070836112</v>
+        <v>0.2449065180072868</v>
       </c>
       <c r="I17">
-        <v>68.52158183710397</v>
+        <v>99.3265016716976</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>105.086063185554</v>
+        <v>152.3291020263642</v>
       </c>
       <c r="C18">
-        <v>0.006231307665030975</v>
+        <v>0.009032686850092727</v>
       </c>
       <c r="D18">
-        <v>5.567350412022092</v>
+        <v>8.070237510296366</v>
       </c>
       <c r="E18">
-        <v>6.87012015276341</v>
+        <v>9.958687212744872</v>
       </c>
       <c r="F18">
-        <v>1.542775935891217</v>
+        <v>2.236354334896225</v>
       </c>
       <c r="G18">
-        <v>29.43266912954311</v>
+        <v>42.66457342517247</v>
       </c>
       <c r="H18">
-        <v>0.1689517070836112</v>
+        <v>0.2449065180072868</v>
       </c>
       <c r="I18">
-        <v>148.6741618305225</v>
+        <v>215.5128937143315</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>185.0288351794726</v>
+        <v>268.2113636905918</v>
       </c>
       <c r="C19">
-        <v>0.01090478841380421</v>
+        <v>0.01580720198766227</v>
       </c>
       <c r="D19">
-        <v>10.26480232216573</v>
+        <v>14.87950040960893</v>
       </c>
       <c r="E19">
-        <v>14.16962281507453</v>
+        <v>20.53979237628631</v>
       </c>
       <c r="F19">
-        <v>2.613643938451003</v>
+        <v>3.788647343824192</v>
       </c>
       <c r="G19">
-        <v>52.62204480736496</v>
+        <v>76.27908582076294</v>
       </c>
       <c r="H19">
-        <v>0.5631723569453706</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I19">
-        <v>265.273026207888</v>
+        <v>384.5305519030861</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>250.6270371986758</v>
+        <v>363.300235661037</v>
       </c>
       <c r="C20">
-        <v>0.01168370187193308</v>
+        <v>0.01693628784392387</v>
       </c>
       <c r="D20">
-        <v>9.046944419535892</v>
+        <v>13.1141359542316</v>
       </c>
       <c r="E20">
-        <v>12.30896527370111</v>
+        <v>17.84264792283457</v>
       </c>
       <c r="F20">
-        <v>2.541042717938474</v>
+        <v>3.683407139829076</v>
       </c>
       <c r="G20">
-        <v>45.48685229111206</v>
+        <v>65.93615892981201</v>
       </c>
       <c r="H20">
-        <v>0.5631723569453706</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I20">
-        <v>320.5856979597806</v>
+        <v>464.7098769556125</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>198.7287053800433</v>
+        <v>288.0702190161148</v>
       </c>
       <c r="C21">
-        <v>0.01246261533006195</v>
+        <v>0.01806537370018545</v>
       </c>
       <c r="D21">
-        <v>4.523472209767946</v>
+        <v>6.557067977115799</v>
       </c>
       <c r="E21">
-        <v>5.152590114572555</v>
+        <v>7.469015409558653</v>
       </c>
       <c r="F21">
-        <v>1.996533564094516</v>
+        <v>2.894105609865703</v>
       </c>
       <c r="G21">
-        <v>33.00026538766953</v>
+        <v>47.83603687064794</v>
       </c>
       <c r="H21">
-        <v>0.2252689427781482</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I21">
-        <v>243.639298214256</v>
+        <v>353.1710522810129</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>235.3154175627438</v>
+        <v>341.1050444148642</v>
       </c>
       <c r="C22">
-        <v>0.03894567290644359</v>
+        <v>0.05645429281307954</v>
       </c>
       <c r="D22">
-        <v>14.09235573043091</v>
+        <v>20.42778869793768</v>
       </c>
       <c r="E22">
-        <v>5.29571761775513</v>
+        <v>7.676488059824171</v>
       </c>
       <c r="F22">
-        <v>3.775263466651447</v>
+        <v>5.472490607746055</v>
       </c>
       <c r="G22">
-        <v>59.7572373236178</v>
+        <v>86.62201271171381</v>
       </c>
       <c r="H22">
-        <v>0.2252689427781482</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I22">
-        <v>318.5002063168836</v>
+        <v>461.6868208089087</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>211.4615259193973</v>
+        <v>306.5272727892479</v>
       </c>
       <c r="C23">
-        <v>0.04050349982270134</v>
+        <v>0.05871246452560273</v>
       </c>
       <c r="D23">
-        <v>11.48266022479556</v>
+        <v>16.64486486498625</v>
       </c>
       <c r="E23">
-        <v>3.291932573199134</v>
+        <v>4.771870956106921</v>
       </c>
       <c r="F23">
-        <v>4.083818653829691</v>
+        <v>5.9197614747253</v>
       </c>
       <c r="G23">
-        <v>45.48685229111206</v>
+        <v>65.93615892981201</v>
       </c>
       <c r="H23">
-        <v>0.2815861784726853</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I23">
-        <v>276.1288793406292</v>
+        <v>400.2668190094162</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>221.9378972492454</v>
+        <v>321.7134562734711</v>
       </c>
       <c r="C24">
-        <v>0.04050349982270134</v>
+        <v>0.05871246452560273</v>
       </c>
       <c r="D24">
-        <v>10.26480232216573</v>
+        <v>14.87950040960893</v>
       </c>
       <c r="E24">
-        <v>3.148805070016563</v>
+        <v>4.564398305841399</v>
       </c>
       <c r="F24">
-        <v>3.811564076907711</v>
+        <v>5.525110709743614</v>
       </c>
       <c r="G24">
-        <v>40.13545790392246</v>
+        <v>58.17896376159887</v>
       </c>
       <c r="H24">
-        <v>0.5631723569453706</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I24">
-        <v>279.9022024790259</v>
+        <v>405.7364969848138</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>223.8719965716789</v>
+        <v>324.517059378251</v>
       </c>
       <c r="C25">
-        <v>0.03115653832515487</v>
+        <v>0.04516343425046363</v>
       </c>
       <c r="D25">
-        <v>10.7867414232928</v>
+        <v>15.63608517619921</v>
       </c>
       <c r="E25">
-        <v>3.005677566833993</v>
+        <v>4.356925655575882</v>
       </c>
       <c r="F25">
-        <v>3.012950651269906</v>
+        <v>4.367468465797335</v>
       </c>
       <c r="G25">
-        <v>37.45976071032758</v>
+        <v>54.30036617749226</v>
       </c>
       <c r="H25">
-        <v>0.3942206498617594</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I25">
-        <v>278.5625041115901</v>
+        <v>403.7945168295832</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>230.3189943131239</v>
+        <v>333.8624030608501</v>
       </c>
       <c r="C26">
-        <v>0.03349327869954149</v>
+        <v>0.04855069181924841</v>
       </c>
       <c r="D26">
-        <v>9.568883520662963</v>
+        <v>13.87072072082189</v>
       </c>
       <c r="E26">
-        <v>1.717530038190852</v>
+        <v>2.489671803186218</v>
       </c>
       <c r="F26">
-        <v>3.847864687163976</v>
+        <v>5.577730811741173</v>
       </c>
       <c r="G26">
-        <v>49.9463476137701</v>
+        <v>72.40048823665633</v>
       </c>
       <c r="H26">
-        <v>0.4505378855562964</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I26">
-        <v>295.8836513371676</v>
+        <v>428.9026493730943</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>241.7624153041889</v>
+        <v>350.4503880974631</v>
       </c>
       <c r="C27">
-        <v>0.02648305757638164</v>
+        <v>0.03838891911289408</v>
       </c>
       <c r="D27">
-        <v>13.39643692892815</v>
+        <v>19.41900900915063</v>
       </c>
       <c r="E27">
-        <v>3.435060076381705</v>
+        <v>4.979343606372436</v>
       </c>
       <c r="F27">
-        <v>3.230754312807489</v>
+        <v>4.683189077782683</v>
       </c>
       <c r="G27">
-        <v>19.62177941969539</v>
+        <v>28.44304895011501</v>
       </c>
       <c r="H27">
-        <v>0.3942206498617594</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I27">
-        <v>281.8671497494398</v>
+        <v>408.5848162020137</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>234.0260180144548</v>
+        <v>339.2359756783447</v>
       </c>
       <c r="C28">
-        <v>0.04050349982270134</v>
+        <v>0.05871246452560273</v>
       </c>
       <c r="D28">
-        <v>13.22245722855247</v>
+        <v>19.16681408695387</v>
       </c>
       <c r="E28">
-        <v>3.148805070016563</v>
+        <v>4.564398305841399</v>
       </c>
       <c r="F28">
-        <v>3.049251261526169</v>
+        <v>4.420088567794889</v>
       </c>
       <c r="G28">
-        <v>40.13545790392246</v>
+        <v>58.17896376159887</v>
       </c>
       <c r="H28">
-        <v>0.9010757711125928</v>
+        <v>1.306168096038863</v>
       </c>
       <c r="I28">
-        <v>294.5235687494077</v>
+        <v>426.9311209610982</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>257.3963848271932</v>
+        <v>373.112846527766</v>
       </c>
       <c r="C29">
-        <v>0.03505110561579923</v>
+        <v>0.05080886353177159</v>
       </c>
       <c r="D29">
-        <v>12.87449782780108</v>
+        <v>18.66242424256036</v>
       </c>
       <c r="E29">
-        <v>4.150697592294558</v>
+        <v>6.016706857700027</v>
       </c>
       <c r="F29">
-        <v>3.031100956398037</v>
+        <v>4.393778516796111</v>
       </c>
       <c r="G29">
-        <v>24.08127474235343</v>
+        <v>34.90737825695931</v>
       </c>
       <c r="H29">
-        <v>1.407930892363427</v>
+        <v>2.040887650060724</v>
       </c>
       <c r="I29">
-        <v>302.9769379440195</v>
+        <v>439.1848309153742</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>322.5110620157878</v>
+        <v>467.500817722016</v>
       </c>
       <c r="C30">
-        <v>0.01713609607883518</v>
+        <v>0.024839888837755</v>
       </c>
       <c r="D30">
-        <v>8.177045917657439</v>
+        <v>11.85316134324779</v>
       </c>
       <c r="E30">
-        <v>6.87012015276341</v>
+        <v>9.958687212744872</v>
       </c>
       <c r="F30">
-        <v>2.631794243579133</v>
+        <v>3.814957394822971</v>
       </c>
       <c r="G30">
-        <v>18.72988035516379</v>
+        <v>27.15018308874613</v>
       </c>
       <c r="H30">
-        <v>0.7321240640289819</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I30">
-        <v>359.6691628450595</v>
+        <v>521.363908228447</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>335.5662324422141</v>
+        <v>486.4251386792791</v>
       </c>
       <c r="C31">
-        <v>0.02258849028573728</v>
+        <v>0.03274348983158614</v>
       </c>
       <c r="D31">
-        <v>10.26480232216573</v>
+        <v>14.87950040960893</v>
       </c>
       <c r="E31">
-        <v>10.01892522277997</v>
+        <v>14.52308551858627</v>
       </c>
       <c r="F31">
-        <v>2.014683869222647</v>
+        <v>2.920415660864481</v>
       </c>
       <c r="G31">
-        <v>16.94608222610058</v>
+        <v>24.56445136600841</v>
       </c>
       <c r="H31">
-        <v>0.2252689427781482</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I31">
-        <v>375.058583515547</v>
+        <v>543.6718771481885</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>265.4551320039994</v>
+        <v>384.7945261310148</v>
       </c>
       <c r="C32">
-        <v>0.01635718262070631</v>
+        <v>0.02371080298149341</v>
       </c>
       <c r="D32">
-        <v>8.698985018784514</v>
+        <v>12.60974610983807</v>
       </c>
       <c r="E32">
-        <v>6.726992649580839</v>
+        <v>9.751214562479355</v>
       </c>
       <c r="F32">
-        <v>1.415723799994293</v>
+        <v>2.052183977904771</v>
       </c>
       <c r="G32">
-        <v>13.37848596797414</v>
+        <v>19.39298792053295</v>
       </c>
       <c r="H32">
-        <v>0.5068551212508335</v>
+        <v>0.7347195540218606</v>
       </c>
       <c r="I32">
-        <v>296.1985317442047</v>
+        <v>429.3590890587733</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>222.2602471363175</v>
+        <v>322.1807234576013</v>
       </c>
       <c r="C33">
-        <v>0.02336740374386615</v>
+        <v>0.03387257568784773</v>
       </c>
       <c r="D33">
-        <v>6.78520831465192</v>
+        <v>9.835601965673701</v>
       </c>
       <c r="E33">
-        <v>9.160160203684546</v>
+        <v>13.27824961699316</v>
       </c>
       <c r="F33">
-        <v>0.907515256406598</v>
+        <v>1.315502549938955</v>
       </c>
       <c r="G33">
-        <v>14.27038503250574</v>
+        <v>20.6858537819018</v>
       </c>
       <c r="H33">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I33">
-        <v>253.4632005830047</v>
+        <v>367.4114394537992</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>182.6112110264307</v>
+        <v>264.7068598096173</v>
       </c>
       <c r="C34">
-        <v>0.01557826916257743</v>
+        <v>0.02258171712523182</v>
       </c>
       <c r="D34">
-        <v>4.523472209767946</v>
+        <v>6.557067977115799</v>
       </c>
       <c r="E34">
-        <v>4.436952598659703</v>
+        <v>6.431652158231064</v>
       </c>
       <c r="F34">
-        <v>0.5808097641002226</v>
+        <v>0.8419216319609321</v>
       </c>
       <c r="G34">
-        <v>7.135192516252872</v>
+        <v>10.3429268909509</v>
       </c>
       <c r="H34">
-        <v>0.2252689427781482</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I34">
-        <v>199.5284853271522</v>
+        <v>289.2295522090109</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>129.1011297724368</v>
+        <v>187.1405072440455</v>
       </c>
       <c r="C35">
-        <v>0.01479935570444856</v>
+        <v>0.02145263126897022</v>
       </c>
       <c r="D35">
-        <v>4.349492509392257</v>
+        <v>6.304873054919034</v>
       </c>
       <c r="E35">
-        <v>2.433167554103708</v>
+        <v>3.527035054513811</v>
       </c>
       <c r="F35">
-        <v>0.4356073230751671</v>
+        <v>0.6314412239706987</v>
       </c>
       <c r="G35">
-        <v>11.59468783891091</v>
+        <v>16.80725619779523</v>
       </c>
       <c r="H35">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I35">
-        <v>147.9852015893179</v>
+        <v>214.5142009125157</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>81.2321715422075</v>
+        <v>117.7513304007477</v>
       </c>
       <c r="C36">
-        <v>0.02726197103451051</v>
+        <v>0.03951800496915568</v>
       </c>
       <c r="D36">
-        <v>1.739797003756903</v>
+        <v>2.521949221967614</v>
       </c>
       <c r="E36">
-        <v>1.288147528643139</v>
+        <v>1.867253852389663</v>
       </c>
       <c r="F36">
-        <v>0.3630061025626393</v>
+        <v>0.5262010199755821</v>
       </c>
       <c r="G36">
-        <v>8.027091580784488</v>
+        <v>11.63579275231976</v>
       </c>
       <c r="H36">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I36">
-        <v>92.7337929646837</v>
+        <v>134.423680758372</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>61.73000337433623</v>
+        <v>89.48166576088569</v>
       </c>
       <c r="C37">
-        <v>0.03271436524141262</v>
+        <v>0.04742160596298682</v>
       </c>
       <c r="D37">
-        <v>1.739797003756903</v>
+        <v>2.521949221967614</v>
       </c>
       <c r="E37">
-        <v>0.5725100127302841</v>
+        <v>0.8298906010620722</v>
       </c>
       <c r="F37">
-        <v>0.3085551871782433</v>
+        <v>0.4472708669792449</v>
       </c>
       <c r="G37">
-        <v>8.918990645316093</v>
+        <v>12.92865861368864</v>
       </c>
       <c r="H37">
-        <v>0.2252689427781482</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I37">
-        <v>73.52783953133732</v>
+        <v>106.583398694556</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>34.65261286026708</v>
+        <v>50.23122229396977</v>
       </c>
       <c r="C38">
-        <v>0.02258849028573728</v>
+        <v>0.03274348983158614</v>
       </c>
       <c r="D38">
-        <v>1.391837603005523</v>
+        <v>2.017559377574091</v>
       </c>
       <c r="E38">
-        <v>0.2862550063651421</v>
+        <v>0.4149453005310361</v>
       </c>
       <c r="F38">
-        <v>0.3630061025626393</v>
+        <v>0.5262010199755821</v>
       </c>
       <c r="G38">
-        <v>8.918990645316093</v>
+        <v>12.92865861368864</v>
       </c>
       <c r="H38">
-        <v>0.1126344713890741</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I38">
-        <v>45.74792517919128</v>
+        <v>66.31460110757557</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>23.20919186920213</v>
+        <v>33.64323725735648</v>
       </c>
       <c r="C39">
-        <v>0.01635718262070631</v>
+        <v>0.02371080298149341</v>
       </c>
       <c r="D39">
-        <v>2.087756404508283</v>
+        <v>3.026339066361138</v>
       </c>
       <c r="E39">
-        <v>0.143127503182571</v>
+        <v>0.2074726502655181</v>
       </c>
       <c r="F39">
-        <v>0.3448557974345072</v>
+        <v>0.4998909689768032</v>
       </c>
       <c r="G39">
-        <v>8.918990645316093</v>
+        <v>12.92865861368864</v>
       </c>
       <c r="H39">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I39">
-        <v>34.77659663795883</v>
+        <v>50.41094486563249</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>23.37036681273825</v>
+        <v>33.87687084942146</v>
       </c>
       <c r="C40">
-        <v>0.008568048039417589</v>
+        <v>0.0124199444188775</v>
       </c>
       <c r="D40">
-        <v>1.913776704132594</v>
+        <v>2.774144144164376</v>
       </c>
       <c r="E40">
-        <v>0.4293825095477131</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F40">
-        <v>0.3811564076907711</v>
+        <v>0.5525110709743611</v>
       </c>
       <c r="G40">
-        <v>11.59468783891091</v>
+        <v>16.80725619779523</v>
       </c>
       <c r="H40">
-        <v>0.1126344713890741</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I40">
-        <v>37.81057279244874</v>
+        <v>54.80889116957572</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>43.6784096982901</v>
+        <v>63.3147034496084</v>
       </c>
       <c r="C41">
-        <v>0.008568048039417589</v>
+        <v>0.0124199444188775</v>
       </c>
       <c r="D41">
-        <v>2.435715805259664</v>
+        <v>3.530728910754663</v>
       </c>
       <c r="E41">
-        <v>0.715637515912855</v>
+        <v>1.03736325132759</v>
       </c>
       <c r="F41">
-        <v>0.9256655615347297</v>
+        <v>1.341812600937735</v>
       </c>
       <c r="G41">
-        <v>17.83798129063219</v>
+        <v>25.85731722737728</v>
       </c>
       <c r="H41">
-        <v>0.05631723569453705</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I41">
-        <v>65.65829515536348</v>
+        <v>95.17598089042697</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>113.4671602494326</v>
+        <v>164.4780488137428</v>
       </c>
       <c r="C42">
-        <v>0.008568048039417589</v>
+        <v>0.0124199444188775</v>
       </c>
       <c r="D42">
-        <v>4.523472209767946</v>
+        <v>6.557067977115799</v>
       </c>
       <c r="E42">
-        <v>6.011355133667985</v>
+        <v>8.713851311151764</v>
       </c>
       <c r="F42">
-        <v>1.833180817941328</v>
+        <v>2.657315150876692</v>
       </c>
       <c r="G42">
-        <v>33.00026538766953</v>
+        <v>47.83603687064794</v>
       </c>
       <c r="H42">
-        <v>0.4505378855562964</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I42">
-        <v>159.2945397320751</v>
+        <v>230.9078241159733</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>168.91134082586</v>
+        <v>244.8480044840944</v>
       </c>
       <c r="C43">
-        <v>0.003894567290644359</v>
+        <v>0.005645429281307954</v>
       </c>
       <c r="D43">
-        <v>6.43724891390054</v>
+        <v>9.33121212128018</v>
       </c>
       <c r="E43">
-        <v>11.73645526097082</v>
+        <v>17.01275732177249</v>
       </c>
       <c r="F43">
-        <v>2.23248753076023</v>
+        <v>3.23613627284983</v>
       </c>
       <c r="G43">
-        <v>66.00053077533906</v>
+        <v>95.67207374129588</v>
       </c>
       <c r="H43">
-        <v>0.5068551212508335</v>
+        <v>0.7347195540218606</v>
       </c>
       <c r="I43">
-        <v>255.8288129953721</v>
+        <v>370.840548924596</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>270.4515552536192</v>
+        <v>392.0371674850289</v>
       </c>
       <c r="C44">
-        <v>0.01324152878819082</v>
+        <v>0.01919445955644704</v>
       </c>
       <c r="D44">
-        <v>8.177045917657439</v>
+        <v>11.85316134324779</v>
       </c>
       <c r="E44">
-        <v>13.16773029279653</v>
+        <v>19.08748382442768</v>
       </c>
       <c r="F44">
-        <v>2.649944548707266</v>
+        <v>3.841267445821751</v>
       </c>
       <c r="G44">
-        <v>48.16254948470687</v>
+        <v>69.81475651391862</v>
       </c>
       <c r="H44">
-        <v>1.013710242501667</v>
+        <v>1.469439108043721</v>
       </c>
       <c r="I44">
-        <v>343.6357772687771</v>
+        <v>498.1224701800449</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>274.4809288420224</v>
+        <v>397.8780072866535</v>
       </c>
       <c r="C45">
-        <v>0.02726197103451051</v>
+        <v>0.03951800496915568</v>
       </c>
       <c r="D45">
-        <v>9.916842921414347</v>
+        <v>14.3751105652154</v>
       </c>
       <c r="E45">
-        <v>6.87012015276341</v>
+        <v>9.958687212744872</v>
       </c>
       <c r="F45">
-        <v>3.031100956398037</v>
+        <v>4.393778516796111</v>
       </c>
       <c r="G45">
-        <v>54.40584293642816</v>
+        <v>78.86481754350068</v>
       </c>
       <c r="H45">
-        <v>0.4505378855562964</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I45">
-        <v>349.1826356656172</v>
+        <v>506.1630031778991</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>235.6377674498161</v>
+        <v>341.5723115989943</v>
       </c>
       <c r="C46">
-        <v>0.04206132673895908</v>
+        <v>0.0609706362381259</v>
       </c>
       <c r="D46">
-        <v>15.31021363306075</v>
+        <v>22.19315315331501</v>
       </c>
       <c r="E46">
-        <v>6.297610140033126</v>
+        <v>9.128796611682798</v>
       </c>
       <c r="F46">
-        <v>3.321505838448149</v>
+        <v>4.814739332776577</v>
       </c>
       <c r="G46">
-        <v>57.97343919455462</v>
+        <v>84.03628098897615</v>
       </c>
       <c r="H46">
-        <v>0.4505378855562964</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I46">
-        <v>319.0331354682079</v>
+        <v>462.4593363700024</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>175.358338567305</v>
+        <v>254.1933481666934</v>
       </c>
       <c r="C47">
-        <v>0.03193545178328375</v>
+        <v>0.04629252010672522</v>
       </c>
       <c r="D47">
-        <v>8.872964719160203</v>
+        <v>12.86194103203484</v>
       </c>
       <c r="E47">
-        <v>2.71942256046885</v>
+        <v>3.941980355044845</v>
       </c>
       <c r="F47">
-        <v>2.940349430757377</v>
+        <v>4.262228261802217</v>
       </c>
       <c r="G47">
-        <v>39.24355883939079</v>
+        <v>56.88609790023002</v>
       </c>
       <c r="H47">
-        <v>0.2815861784726853</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I47">
-        <v>229.4481557473381</v>
+        <v>332.6000657659242</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>184.0617855182557</v>
+        <v>266.8095621382022</v>
       </c>
       <c r="C48">
-        <v>0.03193545178328375</v>
+        <v>0.04629252010672522</v>
       </c>
       <c r="D48">
-        <v>7.82908651690606</v>
+        <v>11.34877149885426</v>
       </c>
       <c r="E48">
-        <v>2.71942256046885</v>
+        <v>3.941980355044845</v>
       </c>
       <c r="F48">
-        <v>2.758846379476057</v>
+        <v>3.999127751814425</v>
       </c>
       <c r="G48">
-        <v>34.78406351673276</v>
+        <v>50.42176859338569</v>
       </c>
       <c r="H48">
-        <v>0.5631723569453706</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I48">
-        <v>232.748312300568</v>
+        <v>337.3838579174325</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>185.6735349536171</v>
+        <v>269.1458980588519</v>
       </c>
       <c r="C49">
-        <v>0.0249252306601239</v>
+        <v>0.03613074740037091</v>
       </c>
       <c r="D49">
-        <v>8.35102561803313</v>
+        <v>12.10535626544455</v>
       </c>
       <c r="E49">
-        <v>2.576295057286278</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F49">
-        <v>2.178036615375836</v>
+        <v>3.157206119853494</v>
       </c>
       <c r="G49">
-        <v>32.10836632313795</v>
+        <v>46.54317100927906</v>
       </c>
       <c r="H49">
-        <v>0.3942206498617594</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I49">
-        <v>231.3064044479721</v>
+        <v>335.2937184476256</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_VOC.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>348.8149529530085</v>
+        <v>237.0769896195313</v>
       </c>
       <c r="C2">
-        <v>0.05419612110055635</v>
+        <v>0.03683515609293963</v>
       </c>
       <c r="D2">
-        <v>16.14047502059273</v>
+        <v>10.97010089881918</v>
       </c>
       <c r="E2">
-        <v>3.734507704779326</v>
+        <v>2.538210695569874</v>
       </c>
       <c r="F2">
-        <v>5.288320250754603</v>
+        <v>3.594281250212935</v>
       </c>
       <c r="G2">
-        <v>43.95743928654137</v>
+        <v>29.8762919685971</v>
       </c>
       <c r="H2">
-        <v>1.061261578031576</v>
+        <v>0.7213013604737706</v>
       </c>
       <c r="I2">
-        <v>419.0511529148088</v>
+        <v>284.8140109492971</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>360.2629989641922</v>
+        <v>244.8578151328314</v>
       </c>
       <c r="C3">
-        <v>0.05984155038186432</v>
+        <v>0.04067215151928749</v>
       </c>
       <c r="D3">
-        <v>16.3926699427895</v>
+        <v>11.14150872536323</v>
       </c>
       <c r="E3">
-        <v>3.734507704779326</v>
+        <v>2.538210695569874</v>
       </c>
       <c r="F3">
-        <v>5.104149893763148</v>
+        <v>3.469107276324923</v>
       </c>
       <c r="G3">
-        <v>34.90737825695931</v>
+        <v>23.72529068094476</v>
       </c>
       <c r="H3">
-        <v>0.9796260720291473</v>
+        <v>0.6658166404373267</v>
       </c>
       <c r="I3">
-        <v>421.4411723848945</v>
+        <v>286.4384213029907</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>364.935670805492</v>
+        <v>248.0336622811171</v>
       </c>
       <c r="C4">
-        <v>0.05532520695681795</v>
+        <v>0.03760255517820921</v>
       </c>
       <c r="D4">
-        <v>16.64486486498625</v>
+        <v>11.31291655190728</v>
       </c>
       <c r="E4">
-        <v>3.527035054513811</v>
+        <v>2.397198990260435</v>
       </c>
       <c r="F4">
-        <v>4.762119230779019</v>
+        <v>3.236641324818613</v>
       </c>
       <c r="G4">
-        <v>34.90737825695931</v>
+        <v>23.72529068094476</v>
       </c>
       <c r="H4">
-        <v>0.8979905660267186</v>
+        <v>0.6103319204008828</v>
       </c>
       <c r="I4">
-        <v>425.7303839857138</v>
+        <v>289.3536443046273</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>394.6071369977438</v>
+        <v>268.2002916727317</v>
       </c>
       <c r="C5">
-        <v>0.04629252010672522</v>
+        <v>0.03146336249605259</v>
       </c>
       <c r="D5">
-        <v>17.40144963157654</v>
+        <v>11.82714003153943</v>
       </c>
       <c r="E5">
-        <v>6.016706857700027</v>
+        <v>4.089339453973683</v>
       </c>
       <c r="F5">
-        <v>4.683189077782683</v>
+        <v>3.182995336009466</v>
       </c>
       <c r="G5">
-        <v>33.61451239559047</v>
+        <v>22.84657621128013</v>
       </c>
       <c r="H5">
-        <v>0.8163550600242894</v>
+        <v>0.554847200364439</v>
       </c>
       <c r="I5">
-        <v>457.1856425405245</v>
+        <v>310.732653268395</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>450.4455655012729</v>
+        <v>306.1516650947462</v>
       </c>
       <c r="C6">
-        <v>0.04403434839420205</v>
+        <v>0.02992856432551345</v>
       </c>
       <c r="D6">
-        <v>15.88828009839598</v>
+        <v>10.79869307227512</v>
       </c>
       <c r="E6">
-        <v>13.27824961699316</v>
+        <v>9.024749139803991</v>
       </c>
       <c r="F6">
-        <v>3.946507649816867</v>
+        <v>2.682299440457415</v>
       </c>
       <c r="G6">
-        <v>16.80725619779523</v>
+        <v>11.42328810564007</v>
       </c>
       <c r="H6">
-        <v>0.7347195540218606</v>
+        <v>0.4993624803279952</v>
       </c>
       <c r="I6">
-        <v>501.1446129666901</v>
+        <v>340.6099858975763</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>480.8179324697197</v>
+        <v>326.7946715586039</v>
       </c>
       <c r="C7">
-        <v>0.01693628784392387</v>
+        <v>0.01151098627904363</v>
       </c>
       <c r="D7">
-        <v>10.84438165446074</v>
+        <v>7.370536541394135</v>
       </c>
       <c r="E7">
-        <v>13.90066756778972</v>
+        <v>9.447784255732309</v>
       </c>
       <c r="F7">
-        <v>2.552074946881574</v>
+        <v>1.734553638162461</v>
       </c>
       <c r="G7">
-        <v>16.80725619779523</v>
+        <v>11.42328810564007</v>
       </c>
       <c r="H7">
-        <v>0.8163550600242894</v>
+        <v>0.554847200364439</v>
       </c>
       <c r="I7">
-        <v>525.7556041845152</v>
+        <v>357.3371922861763</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>365.8702051737516</v>
+        <v>248.6688317107743</v>
       </c>
       <c r="C8">
-        <v>0.02145263126897022</v>
+        <v>0.01458058262012193</v>
       </c>
       <c r="D8">
-        <v>14.87950040960893</v>
+        <v>10.11306176609892</v>
       </c>
       <c r="E8">
-        <v>8.298906010620723</v>
+        <v>5.640468212377495</v>
       </c>
       <c r="F8">
-        <v>1.894323671912096</v>
+        <v>1.287503731419559</v>
       </c>
       <c r="G8">
-        <v>15.51439033642637</v>
+        <v>10.54457363597544</v>
       </c>
       <c r="H8">
-        <v>0.1632710120048579</v>
+        <v>0.1109694400728878</v>
       </c>
       <c r="I8">
-        <v>406.6420492455936</v>
+        <v>276.3799890793388</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>291.3410893050245</v>
+        <v>198.0140696956166</v>
       </c>
       <c r="C9">
-        <v>0.02258171712523182</v>
+        <v>0.01534798170539151</v>
       </c>
       <c r="D9">
-        <v>9.33121212128018</v>
+        <v>6.342089582129836</v>
       </c>
       <c r="E9">
-        <v>15.76792142017938</v>
+        <v>10.71688960351724</v>
       </c>
       <c r="F9">
-        <v>0.8682316829597108</v>
+        <v>0.5901058769006311</v>
       </c>
       <c r="G9">
-        <v>18.10012205916408</v>
+        <v>12.30200257530469</v>
       </c>
       <c r="H9">
-        <v>0.2449065180072868</v>
+        <v>0.1664541601093317</v>
       </c>
       <c r="I9">
-        <v>335.6760648237404</v>
+        <v>228.1469594752838</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>241.3435006031197</v>
+        <v>164.032505208959</v>
       </c>
       <c r="C10">
-        <v>0.01129085856261591</v>
+        <v>0.007673990852695755</v>
       </c>
       <c r="D10">
-        <v>7.818042588099604</v>
+        <v>5.31364262286554</v>
       </c>
       <c r="E10">
-        <v>7.88396071008969</v>
+        <v>5.358444801758622</v>
       </c>
       <c r="F10">
-        <v>0.8156115809621522</v>
+        <v>0.5543418843611989</v>
       </c>
       <c r="G10">
-        <v>21.97871964327069</v>
+        <v>14.93814598429855</v>
       </c>
       <c r="H10">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I10">
-        <v>279.9327614901069</v>
+        <v>190.2602392131321</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>171.487056575692</v>
+        <v>116.553590342087</v>
       </c>
       <c r="C11">
-        <v>0.02258171712523182</v>
+        <v>0.01534798170539151</v>
       </c>
       <c r="D11">
-        <v>4.035118755148183</v>
+        <v>2.742525224704794</v>
       </c>
       <c r="E11">
-        <v>3.734507704779326</v>
+        <v>2.538210695569874</v>
       </c>
       <c r="F11">
-        <v>0.8945417339584898</v>
+        <v>0.6079878731703475</v>
       </c>
       <c r="G11">
-        <v>15.51439033642637</v>
+        <v>10.54457363597544</v>
       </c>
       <c r="H11">
-        <v>0.3265420240097158</v>
+        <v>0.2219388801457755</v>
       </c>
       <c r="I11">
-        <v>196.0147388471393</v>
+        <v>133.2241746333587</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>105.368750021304</v>
+        <v>71.61535319384367</v>
       </c>
       <c r="C12">
-        <v>0.02258171712523182</v>
+        <v>0.01534798170539151</v>
       </c>
       <c r="D12">
-        <v>2.269754299770854</v>
+        <v>1.542670438896447</v>
       </c>
       <c r="E12">
-        <v>1.867253852389663</v>
+        <v>1.269105347784937</v>
       </c>
       <c r="F12">
-        <v>0.4998909689768032</v>
+        <v>0.339757929124606</v>
       </c>
       <c r="G12">
-        <v>11.63579275231976</v>
+        <v>7.908430226981579</v>
       </c>
       <c r="H12">
-        <v>0.1632710120048579</v>
+        <v>0.1109694400728878</v>
       </c>
       <c r="I12">
-        <v>121.8272946238912</v>
+        <v>82.80163455840953</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>74.76274946079221</v>
+        <v>50.81355437257203</v>
       </c>
       <c r="C13">
-        <v>0.03387257568784773</v>
+        <v>0.02302197255808727</v>
       </c>
       <c r="D13">
-        <v>2.521949221967614</v>
+        <v>1.714078265440496</v>
       </c>
       <c r="E13">
-        <v>1.244835901593109</v>
+        <v>0.8460702318566243</v>
       </c>
       <c r="F13">
-        <v>0.5262010199755821</v>
+        <v>0.3576399253943219</v>
       </c>
       <c r="G13">
-        <v>14.2215244750575</v>
+        <v>9.66585916631082</v>
       </c>
       <c r="I13">
-        <v>93.31113265507388</v>
+        <v>63.42022393413238</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>49.29668792570985</v>
+        <v>33.50518741441468</v>
       </c>
       <c r="C14">
-        <v>0.03613074740037091</v>
+        <v>0.02455677072862641</v>
       </c>
       <c r="D14">
-        <v>1.513169533180569</v>
+        <v>1.028446959264298</v>
       </c>
       <c r="E14">
-        <v>0.6224179507965545</v>
+        <v>0.4230351159283122</v>
       </c>
       <c r="F14">
-        <v>0.5788211219731407</v>
+        <v>0.3934039179337541</v>
       </c>
       <c r="G14">
-        <v>20.6858537819018</v>
+        <v>14.05943151463393</v>
       </c>
       <c r="H14">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I14">
-        <v>72.81471656696472</v>
+        <v>49.48954641294005</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>37.61500832246106</v>
+        <v>25.56556954370028</v>
       </c>
       <c r="C15">
-        <v>0.02709806055027818</v>
+        <v>0.01841757804646981</v>
       </c>
       <c r="D15">
-        <v>2.774144144164376</v>
+        <v>1.885486091984546</v>
       </c>
       <c r="E15">
-        <v>0.8298906010620722</v>
+        <v>0.5640468212377494</v>
       </c>
       <c r="F15">
-        <v>0.4472708669792449</v>
+        <v>0.3039939365851738</v>
       </c>
       <c r="G15">
-        <v>18.10012205916408</v>
+        <v>12.30200257530469</v>
       </c>
       <c r="H15">
-        <v>0.1632710120048579</v>
+        <v>0.1109694400728878</v>
       </c>
       <c r="I15">
-        <v>59.95680506638597</v>
+        <v>40.7504859869318</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>34.34413803355141</v>
+        <v>23.34247653990026</v>
       </c>
       <c r="C16">
-        <v>0.01016177270635432</v>
+        <v>0.00690659176742618</v>
       </c>
       <c r="D16">
-        <v>3.278533988557899</v>
+        <v>2.228301745072646</v>
       </c>
       <c r="E16">
-        <v>0.6224179507965545</v>
+        <v>0.4230351159283122</v>
       </c>
       <c r="F16">
-        <v>0.420960815980466</v>
+        <v>0.2861119403154576</v>
       </c>
       <c r="G16">
-        <v>15.51439033642637</v>
+        <v>10.54457363597544</v>
       </c>
       <c r="H16">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I16">
-        <v>54.27223840402147</v>
+        <v>36.88689028899599</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>69.15554325123276</v>
+        <v>47.0025377946291</v>
       </c>
       <c r="C17">
-        <v>0.01467811613140068</v>
+        <v>0.00997618810850448</v>
       </c>
       <c r="D17">
-        <v>5.043898443935229</v>
+        <v>3.428156530880992</v>
       </c>
       <c r="E17">
-        <v>0.6224179507965545</v>
+        <v>0.4230351159283122</v>
       </c>
       <c r="F17">
-        <v>0.9734718869548276</v>
+        <v>0.6616338619794954</v>
       </c>
       <c r="G17">
-        <v>23.27158550463953</v>
+        <v>15.81686045396316</v>
       </c>
       <c r="H17">
-        <v>0.2449065180072868</v>
+        <v>0.1664541601093317</v>
       </c>
       <c r="I17">
-        <v>99.3265016716976</v>
+        <v>67.50865410559889</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>152.3291020263642</v>
+        <v>103.5326170341155</v>
       </c>
       <c r="C18">
-        <v>0.009032686850092727</v>
+        <v>0.006139192682156604</v>
       </c>
       <c r="D18">
-        <v>8.070237510296366</v>
+        <v>5.485050449409589</v>
       </c>
       <c r="E18">
-        <v>9.958687212744872</v>
+        <v>6.768561854852995</v>
       </c>
       <c r="F18">
-        <v>2.236354334896225</v>
+        <v>1.519969682925868</v>
       </c>
       <c r="G18">
-        <v>42.66457342517247</v>
+        <v>28.99757749893247</v>
       </c>
       <c r="H18">
-        <v>0.2449065180072868</v>
+        <v>0.1664541601093317</v>
       </c>
       <c r="I18">
-        <v>215.5128937143315</v>
+        <v>146.4763698730279</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>268.2113636905918</v>
+        <v>182.2936263116021</v>
       </c>
       <c r="C19">
-        <v>0.01580720198766227</v>
+        <v>0.01074358719377405</v>
       </c>
       <c r="D19">
-        <v>14.87950040960893</v>
+        <v>10.11306176609892</v>
       </c>
       <c r="E19">
-        <v>20.53979237628631</v>
+        <v>13.9601588256343</v>
       </c>
       <c r="F19">
-        <v>3.788647343824192</v>
+        <v>2.575007462839118</v>
       </c>
       <c r="G19">
-        <v>76.27908582076294</v>
+        <v>51.84415371021259</v>
       </c>
       <c r="H19">
-        <v>0.8163550600242894</v>
+        <v>0.554847200364439</v>
       </c>
       <c r="I19">
-        <v>384.5305519030861</v>
+        <v>261.3515988639453</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>363.300235661037</v>
+        <v>246.9221157792171</v>
       </c>
       <c r="C20">
-        <v>0.01693628784392387</v>
+        <v>0.01151098627904363</v>
       </c>
       <c r="D20">
-        <v>13.1141359542316</v>
+        <v>8.913206980290584</v>
       </c>
       <c r="E20">
-        <v>17.84264792283457</v>
+        <v>12.12700665661161</v>
       </c>
       <c r="F20">
-        <v>3.683407139829076</v>
+        <v>2.503479477760254</v>
       </c>
       <c r="G20">
-        <v>65.93615892981201</v>
+        <v>44.81443795289558</v>
       </c>
       <c r="H20">
-        <v>0.8163550600242894</v>
+        <v>0.554847200364439</v>
       </c>
       <c r="I20">
-        <v>464.7098769556125</v>
+        <v>315.8466050334187</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>288.0702190161148</v>
+        <v>195.7909766918166</v>
       </c>
       <c r="C21">
-        <v>0.01806537370018545</v>
+        <v>0.01227838536431321</v>
       </c>
       <c r="D21">
-        <v>6.557067977115799</v>
+        <v>4.456603490145292</v>
       </c>
       <c r="E21">
-        <v>7.469015409558653</v>
+        <v>5.076421391139747</v>
       </c>
       <c r="F21">
-        <v>2.894105609865703</v>
+        <v>1.967019589668771</v>
       </c>
       <c r="G21">
-        <v>47.83603687064794</v>
+        <v>32.51243537759095</v>
       </c>
       <c r="H21">
-        <v>0.3265420240097158</v>
+        <v>0.2219388801457755</v>
       </c>
       <c r="I21">
-        <v>353.1710522810129</v>
+        <v>240.0376738058714</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>341.1050444148642</v>
+        <v>231.8368418248598</v>
       </c>
       <c r="C22">
-        <v>0.05645429281307954</v>
+        <v>0.03836995426347878</v>
       </c>
       <c r="D22">
-        <v>20.42778869793768</v>
+        <v>13.88403395006803</v>
       </c>
       <c r="E22">
-        <v>7.676488059824171</v>
+        <v>5.217433096449183</v>
       </c>
       <c r="F22">
-        <v>5.472490607746055</v>
+        <v>3.719455224100948</v>
       </c>
       <c r="G22">
-        <v>86.62201271171381</v>
+        <v>58.87386946752958</v>
       </c>
       <c r="H22">
-        <v>0.3265420240097158</v>
+        <v>0.2219388801457755</v>
       </c>
       <c r="I22">
-        <v>461.6868208089087</v>
+        <v>313.7919423974168</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>306.5272727892479</v>
+        <v>208.3355729275452</v>
       </c>
       <c r="C23">
-        <v>0.05871246452560273</v>
+        <v>0.03990475243401792</v>
       </c>
       <c r="D23">
-        <v>16.64486486498625</v>
+        <v>11.31291655190728</v>
       </c>
       <c r="E23">
-        <v>4.771870956106921</v>
+        <v>3.243269222117061</v>
       </c>
       <c r="F23">
-        <v>5.9197614747253</v>
+        <v>4.023449160686122</v>
       </c>
       <c r="G23">
-        <v>65.93615892981201</v>
+        <v>44.81443795289558</v>
       </c>
       <c r="H23">
-        <v>0.4081775300121447</v>
+        <v>0.2774236001822195</v>
       </c>
       <c r="I23">
-        <v>400.2668190094162</v>
+        <v>272.0469741677674</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>321.7134562734711</v>
+        <v>218.657076159474</v>
       </c>
       <c r="C24">
-        <v>0.05871246452560273</v>
+        <v>0.03990475243401792</v>
       </c>
       <c r="D24">
-        <v>14.87950040960893</v>
+        <v>10.11306176609892</v>
       </c>
       <c r="E24">
-        <v>4.564398305841399</v>
+        <v>3.102257516807622</v>
       </c>
       <c r="F24">
-        <v>5.525110709743614</v>
+        <v>3.75521921664038</v>
       </c>
       <c r="G24">
-        <v>58.17896376159887</v>
+        <v>39.5421511349079</v>
       </c>
       <c r="H24">
-        <v>0.8163550600242894</v>
+        <v>0.554847200364439</v>
       </c>
       <c r="I24">
-        <v>405.7364969848138</v>
+        <v>275.7645177467272</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>324.517059378251</v>
+        <v>220.5625844484453</v>
       </c>
       <c r="C25">
-        <v>0.04516343425046363</v>
+        <v>0.03069596341078302</v>
       </c>
       <c r="D25">
-        <v>15.63608517619921</v>
+        <v>10.62728524573108</v>
       </c>
       <c r="E25">
-        <v>4.356925655575882</v>
+        <v>2.961245811498186</v>
       </c>
       <c r="F25">
-        <v>4.367468465797335</v>
+        <v>2.968411380772872</v>
       </c>
       <c r="G25">
-        <v>54.30036617749226</v>
+        <v>36.90600772591407</v>
       </c>
       <c r="H25">
-        <v>0.5714485420170028</v>
+        <v>0.3883930402551073</v>
       </c>
       <c r="I25">
-        <v>403.7945168295832</v>
+        <v>274.4446236160274</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>333.8624030608501</v>
+        <v>226.9142787450169</v>
       </c>
       <c r="C26">
-        <v>0.04855069181924841</v>
+        <v>0.03299816066659174</v>
       </c>
       <c r="D26">
-        <v>13.87072072082189</v>
+        <v>9.427430459922729</v>
       </c>
       <c r="E26">
-        <v>2.489671803186218</v>
+        <v>1.692140463713249</v>
       </c>
       <c r="F26">
-        <v>5.577730811741173</v>
+        <v>3.790983209179813</v>
       </c>
       <c r="G26">
-        <v>72.40048823665633</v>
+        <v>49.20801030121875</v>
       </c>
       <c r="H26">
-        <v>0.6530840480194315</v>
+        <v>0.4438777602915511</v>
       </c>
       <c r="I26">
-        <v>428.9026493730943</v>
+        <v>291.5097191000096</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>350.4503880974631</v>
+        <v>238.1885361214313</v>
       </c>
       <c r="C27">
-        <v>0.03838891911289408</v>
+        <v>0.02609156889916557</v>
       </c>
       <c r="D27">
-        <v>19.41900900915063</v>
+        <v>13.19840264389182</v>
       </c>
       <c r="E27">
-        <v>4.979343606372436</v>
+        <v>3.384280927426497</v>
       </c>
       <c r="F27">
-        <v>4.683189077782683</v>
+        <v>3.182995336009466</v>
       </c>
       <c r="G27">
-        <v>28.44304895011501</v>
+        <v>19.33171833262164</v>
       </c>
       <c r="H27">
-        <v>0.5714485420170028</v>
+        <v>0.3883930402551073</v>
       </c>
       <c r="I27">
-        <v>408.5848162020137</v>
+        <v>277.7004179705349</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>339.2359756783447</v>
+        <v>230.5665029655456</v>
       </c>
       <c r="C28">
-        <v>0.05871246452560273</v>
+        <v>0.03990475243401792</v>
       </c>
       <c r="D28">
-        <v>19.16681408695387</v>
+        <v>13.02699481734777</v>
       </c>
       <c r="E28">
-        <v>4.564398305841399</v>
+        <v>3.102257516807622</v>
       </c>
       <c r="F28">
-        <v>4.420088567794889</v>
+        <v>3.004175373312303</v>
       </c>
       <c r="G28">
-        <v>58.17896376159887</v>
+        <v>39.5421511349079</v>
       </c>
       <c r="H28">
-        <v>1.306168096038863</v>
+        <v>0.8877555205831021</v>
       </c>
       <c r="I28">
-        <v>426.9311209610982</v>
+        <v>290.1697420809382</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>373.112846527766</v>
+        <v>253.5913947906171</v>
       </c>
       <c r="C29">
-        <v>0.05080886353177159</v>
+        <v>0.03453295883713089</v>
       </c>
       <c r="D29">
-        <v>18.66242424256036</v>
+        <v>12.68417916425967</v>
       </c>
       <c r="E29">
-        <v>6.016706857700027</v>
+        <v>4.089339453973683</v>
       </c>
       <c r="F29">
-        <v>4.393778516796111</v>
+        <v>2.986293377042588</v>
       </c>
       <c r="G29">
-        <v>34.90737825695931</v>
+        <v>23.72529068094476</v>
       </c>
       <c r="H29">
-        <v>2.040887650060724</v>
+        <v>1.387118000911097</v>
       </c>
       <c r="I29">
-        <v>439.1848309153742</v>
+        <v>298.498148426586</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>467.500817722016</v>
+        <v>317.7435071859894</v>
       </c>
       <c r="C30">
-        <v>0.024839888837755</v>
+        <v>0.01688277987593066</v>
       </c>
       <c r="D30">
-        <v>11.85316134324779</v>
+        <v>8.056167847570336</v>
       </c>
       <c r="E30">
-        <v>9.958687212744872</v>
+        <v>6.768561854852995</v>
       </c>
       <c r="F30">
-        <v>3.814957394822971</v>
+        <v>2.592889459108835</v>
       </c>
       <c r="G30">
-        <v>27.15018308874613</v>
+        <v>18.45300386295704</v>
       </c>
       <c r="H30">
-        <v>1.061261578031576</v>
+        <v>0.7213013604737706</v>
       </c>
       <c r="I30">
-        <v>521.363908228447</v>
+        <v>354.3523143508283</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>486.4251386792791</v>
+        <v>330.6056881365465</v>
       </c>
       <c r="C31">
-        <v>0.03274348983158614</v>
+        <v>0.02225457347281769</v>
       </c>
       <c r="D31">
-        <v>14.87950040960893</v>
+        <v>10.11306176609892</v>
       </c>
       <c r="E31">
-        <v>14.52308551858627</v>
+        <v>9.87081937166062</v>
       </c>
       <c r="F31">
-        <v>2.920415660864481</v>
+        <v>1.984901585938487</v>
       </c>
       <c r="G31">
-        <v>24.56445136600841</v>
+        <v>16.69557492362779</v>
       </c>
       <c r="H31">
-        <v>0.3265420240097158</v>
+        <v>0.2219388801457755</v>
       </c>
       <c r="I31">
-        <v>543.6718771481885</v>
+        <v>369.514239237491</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>384.7945261310148</v>
+        <v>261.5310126613317</v>
       </c>
       <c r="C32">
-        <v>0.02371080298149341</v>
+        <v>0.01611538079066109</v>
       </c>
       <c r="D32">
-        <v>12.60974610983807</v>
+        <v>8.570391327202483</v>
       </c>
       <c r="E32">
-        <v>9.751214562479355</v>
+        <v>6.627550149543556</v>
       </c>
       <c r="F32">
-        <v>2.052183977904771</v>
+        <v>1.394795709037855</v>
       </c>
       <c r="G32">
-        <v>19.39298792053295</v>
+        <v>13.18071704496931</v>
       </c>
       <c r="H32">
-        <v>0.7347195540218606</v>
+        <v>0.4993624803279952</v>
       </c>
       <c r="I32">
-        <v>429.3590890587733</v>
+        <v>291.8199447532035</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>322.1807234576013</v>
+        <v>218.9746608743025</v>
       </c>
       <c r="C33">
-        <v>0.03387257568784773</v>
+        <v>0.02302197255808727</v>
       </c>
       <c r="D33">
-        <v>9.835601965673701</v>
+        <v>6.684905235217935</v>
       </c>
       <c r="E33">
-        <v>13.27824961699316</v>
+        <v>9.024749139803991</v>
       </c>
       <c r="F33">
-        <v>1.315502549938955</v>
+        <v>0.8940998134858048</v>
       </c>
       <c r="G33">
-        <v>20.6858537819018</v>
+        <v>14.05943151463393</v>
       </c>
       <c r="H33">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I33">
-        <v>367.4114394537992</v>
+        <v>249.7163532700388</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>264.7068598096173</v>
+        <v>179.9117409503878</v>
       </c>
       <c r="C34">
-        <v>0.02258171712523182</v>
+        <v>0.01534798170539151</v>
       </c>
       <c r="D34">
-        <v>6.557067977115799</v>
+        <v>4.456603490145292</v>
       </c>
       <c r="E34">
-        <v>6.431652158231064</v>
+        <v>4.371362864592559</v>
       </c>
       <c r="F34">
-        <v>0.8419216319609321</v>
+        <v>0.5722238806309152</v>
       </c>
       <c r="G34">
-        <v>10.3429268909509</v>
+        <v>7.029715757316964</v>
       </c>
       <c r="H34">
-        <v>0.3265420240097158</v>
+        <v>0.2219388801457755</v>
       </c>
       <c r="I34">
-        <v>289.2295522090109</v>
+        <v>196.5789338049246</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>187.1405072440455</v>
+        <v>127.1926782888443</v>
       </c>
       <c r="C35">
-        <v>0.02145263126897022</v>
+        <v>0.01458058262012193</v>
       </c>
       <c r="D35">
-        <v>6.304873054919034</v>
+        <v>4.285195663601241</v>
       </c>
       <c r="E35">
-        <v>3.527035054513811</v>
+        <v>2.397198990260435</v>
       </c>
       <c r="F35">
-        <v>0.6314412239706987</v>
+        <v>0.4291679104731864</v>
       </c>
       <c r="G35">
-        <v>16.80725619779523</v>
+        <v>11.42328810564007</v>
       </c>
       <c r="H35">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I35">
-        <v>214.5142009125157</v>
+        <v>145.7975942614758</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>117.7513304007477</v>
+        <v>80.03134813680091</v>
       </c>
       <c r="C36">
-        <v>0.03951800496915568</v>
+        <v>0.02685896798443514</v>
       </c>
       <c r="D36">
-        <v>2.521949221967614</v>
+        <v>1.714078265440496</v>
       </c>
       <c r="E36">
-        <v>1.867253852389663</v>
+        <v>1.269105347784937</v>
       </c>
       <c r="F36">
-        <v>0.5262010199755821</v>
+        <v>0.3576399253943219</v>
       </c>
       <c r="G36">
-        <v>11.63579275231976</v>
+        <v>7.908430226981579</v>
       </c>
       <c r="H36">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I36">
-        <v>134.423680758372</v>
+        <v>91.36294559042314</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>89.48166576088569</v>
+        <v>60.81747288967214</v>
       </c>
       <c r="C37">
-        <v>0.04742160596298682</v>
+        <v>0.03223076158132217</v>
       </c>
       <c r="D37">
-        <v>2.521949221967614</v>
+        <v>1.714078265440496</v>
       </c>
       <c r="E37">
-        <v>0.8298906010620722</v>
+        <v>0.5640468212377494</v>
       </c>
       <c r="F37">
-        <v>0.4472708669792449</v>
+        <v>0.3039939365851738</v>
       </c>
       <c r="G37">
-        <v>12.92865861368864</v>
+        <v>8.787144696646211</v>
       </c>
       <c r="H37">
-        <v>0.3265420240097158</v>
+        <v>0.2219388801457755</v>
       </c>
       <c r="I37">
-        <v>106.583398694556</v>
+        <v>72.44090625130887</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>50.23122229396977</v>
+        <v>34.14035684407185</v>
       </c>
       <c r="C38">
-        <v>0.03274348983158614</v>
+        <v>0.02225457347281769</v>
       </c>
       <c r="D38">
-        <v>2.017559377574091</v>
+        <v>1.371262612352397</v>
       </c>
       <c r="E38">
-        <v>0.4149453005310361</v>
+        <v>0.2820234106188747</v>
       </c>
       <c r="F38">
-        <v>0.5262010199755821</v>
+        <v>0.3576399253943219</v>
       </c>
       <c r="G38">
-        <v>12.92865861368864</v>
+        <v>8.787144696646211</v>
       </c>
       <c r="H38">
-        <v>0.1632710120048579</v>
+        <v>0.1109694400728878</v>
       </c>
       <c r="I38">
-        <v>66.31460110757557</v>
+        <v>45.07165150262935</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>33.64323725735648</v>
+        <v>22.86609946765738</v>
       </c>
       <c r="C39">
-        <v>0.02371080298149341</v>
+        <v>0.01611538079066109</v>
       </c>
       <c r="D39">
-        <v>3.026339066361138</v>
+        <v>2.056893918528595</v>
       </c>
       <c r="E39">
-        <v>0.2074726502655181</v>
+        <v>0.1410117053094374</v>
       </c>
       <c r="F39">
-        <v>0.4998909689768032</v>
+        <v>0.339757929124606</v>
       </c>
       <c r="G39">
-        <v>12.92865861368864</v>
+        <v>8.787144696646211</v>
       </c>
       <c r="H39">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I39">
-        <v>50.41094486563249</v>
+        <v>34.26250781809334</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>33.87687084942146</v>
+        <v>23.02489182507169</v>
       </c>
       <c r="C40">
-        <v>0.0124199444188775</v>
+        <v>0.008441389937965331</v>
       </c>
       <c r="D40">
-        <v>2.774144144164376</v>
+        <v>1.885486091984546</v>
       </c>
       <c r="E40">
-        <v>0.6224179507965545</v>
+        <v>0.4230351159283122</v>
       </c>
       <c r="F40">
-        <v>0.5525110709743611</v>
+        <v>0.3755219216640379</v>
       </c>
       <c r="G40">
-        <v>16.80725619779523</v>
+        <v>11.42328810564007</v>
       </c>
       <c r="H40">
-        <v>0.1632710120048579</v>
+        <v>0.1109694400728878</v>
       </c>
       <c r="I40">
-        <v>54.80889116957572</v>
+        <v>37.2516338902995</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>63.3147034496084</v>
+        <v>43.03272885927195</v>
       </c>
       <c r="C41">
-        <v>0.0124199444188775</v>
+        <v>0.008441389937965331</v>
       </c>
       <c r="D41">
-        <v>3.530728910754663</v>
+        <v>2.399709571616696</v>
       </c>
       <c r="E41">
-        <v>1.03736325132759</v>
+        <v>0.7050585265471869</v>
       </c>
       <c r="F41">
-        <v>1.341812600937735</v>
+        <v>0.9119818097555209</v>
       </c>
       <c r="G41">
-        <v>25.85731722737728</v>
+        <v>17.57428939329242</v>
       </c>
       <c r="H41">
-        <v>0.08163550600242894</v>
+        <v>0.05548472003644388</v>
       </c>
       <c r="I41">
-        <v>95.17598089042697</v>
+        <v>64.68769427045818</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>164.4780488137428</v>
+        <v>111.7898196196584</v>
       </c>
       <c r="C42">
-        <v>0.0124199444188775</v>
+        <v>0.008441389937965331</v>
       </c>
       <c r="D42">
-        <v>6.557067977115799</v>
+        <v>4.456603490145292</v>
       </c>
       <c r="E42">
-        <v>8.713851311151764</v>
+        <v>5.922491622996372</v>
       </c>
       <c r="F42">
-        <v>2.657315150876692</v>
+        <v>1.806081623241326</v>
       </c>
       <c r="G42">
-        <v>47.83603687064794</v>
+        <v>32.51243537759095</v>
       </c>
       <c r="H42">
-        <v>0.6530840480194315</v>
+        <v>0.4438777602915511</v>
       </c>
       <c r="I42">
-        <v>230.9078241159733</v>
+        <v>156.9397508838619</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>244.8480044840944</v>
+        <v>166.4143905701733</v>
       </c>
       <c r="C43">
-        <v>0.005645429281307954</v>
+        <v>0.003836995426347878</v>
       </c>
       <c r="D43">
-        <v>9.33121212128018</v>
+        <v>6.342089582129836</v>
       </c>
       <c r="E43">
-        <v>17.01275732177249</v>
+        <v>11.56295983537386</v>
       </c>
       <c r="F43">
-        <v>3.23613627284983</v>
+        <v>2.19948554117508</v>
       </c>
       <c r="G43">
-        <v>95.67207374129588</v>
+        <v>65.02487075518189</v>
       </c>
       <c r="H43">
-        <v>0.7347195540218606</v>
+        <v>0.4993624803279952</v>
       </c>
       <c r="I43">
-        <v>370.840548924596</v>
+        <v>252.0469957597883</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>392.0371674850289</v>
+        <v>266.4535757411746</v>
       </c>
       <c r="C44">
-        <v>0.01919445955644704</v>
+        <v>0.01304578444958278</v>
       </c>
       <c r="D44">
-        <v>11.85316134324779</v>
+        <v>8.056167847570336</v>
       </c>
       <c r="E44">
-        <v>19.08748382442768</v>
+        <v>12.97307688846824</v>
       </c>
       <c r="F44">
-        <v>3.841267445821751</v>
+        <v>2.61077145537855</v>
       </c>
       <c r="G44">
-        <v>69.81475651391862</v>
+        <v>47.45058136188953</v>
       </c>
       <c r="H44">
-        <v>1.469439108043721</v>
+        <v>0.9987249606559904</v>
       </c>
       <c r="I44">
-        <v>498.1224701800449</v>
+        <v>338.5559440395868</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>397.8780072866535</v>
+        <v>270.4233846765318</v>
       </c>
       <c r="C45">
-        <v>0.03951800496915568</v>
+        <v>0.02685896798443514</v>
       </c>
       <c r="D45">
-        <v>14.3751105652154</v>
+        <v>9.770246113010833</v>
       </c>
       <c r="E45">
-        <v>9.958687212744872</v>
+        <v>6.768561854852995</v>
       </c>
       <c r="F45">
-        <v>4.393778516796111</v>
+        <v>2.986293377042588</v>
       </c>
       <c r="G45">
-        <v>78.86481754350068</v>
+        <v>53.60158264954184</v>
       </c>
       <c r="H45">
-        <v>0.6530840480194315</v>
+        <v>0.4438777602915511</v>
       </c>
       <c r="I45">
-        <v>506.1630031778991</v>
+        <v>344.0208053992561</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>341.5723115989943</v>
+        <v>232.1544265396884</v>
       </c>
       <c r="C46">
-        <v>0.0609706362381259</v>
+        <v>0.04143955060455708</v>
       </c>
       <c r="D46">
-        <v>22.19315315331501</v>
+        <v>15.08388873587637</v>
       </c>
       <c r="E46">
-        <v>9.128796611682798</v>
+        <v>6.204515033615245</v>
       </c>
       <c r="F46">
-        <v>4.814739332776577</v>
+        <v>3.272405317358045</v>
       </c>
       <c r="G46">
-        <v>84.03628098897615</v>
+        <v>57.11644052820033</v>
       </c>
       <c r="H46">
-        <v>0.6530840480194315</v>
+        <v>0.4438777602915511</v>
       </c>
       <c r="I46">
-        <v>462.4593363700024</v>
+        <v>314.3169934656345</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>254.1933481666934</v>
+        <v>172.7660848667448</v>
       </c>
       <c r="C47">
-        <v>0.04629252010672522</v>
+        <v>0.03146336249605259</v>
       </c>
       <c r="D47">
-        <v>12.86194103203484</v>
+        <v>8.741799153746534</v>
       </c>
       <c r="E47">
-        <v>3.941980355044845</v>
+        <v>2.679222400879311</v>
       </c>
       <c r="F47">
-        <v>4.262228261802217</v>
+        <v>2.896883395694008</v>
       </c>
       <c r="G47">
-        <v>56.88609790023002</v>
+        <v>38.66343666524328</v>
       </c>
       <c r="H47">
-        <v>0.4081775300121447</v>
+        <v>0.2774236001822195</v>
       </c>
       <c r="I47">
-        <v>332.6000657659242</v>
+        <v>226.0563134449863</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>266.8095621382022</v>
+        <v>181.3408721671164</v>
       </c>
       <c r="C48">
-        <v>0.04629252010672522</v>
+        <v>0.03146336249605259</v>
       </c>
       <c r="D48">
-        <v>11.34877149885426</v>
+        <v>7.713352194482234</v>
       </c>
       <c r="E48">
-        <v>3.941980355044845</v>
+        <v>2.679222400879311</v>
       </c>
       <c r="F48">
-        <v>3.999127751814425</v>
+        <v>2.718063432996848</v>
       </c>
       <c r="G48">
-        <v>50.42176859338569</v>
+        <v>34.26986431692018</v>
       </c>
       <c r="H48">
-        <v>0.8163550600242894</v>
+        <v>0.554847200364439</v>
       </c>
       <c r="I48">
-        <v>337.3838579174325</v>
+        <v>229.3076850752555</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>269.1458980588519</v>
+        <v>182.9287957412591</v>
       </c>
       <c r="C49">
-        <v>0.03613074740037091</v>
+        <v>0.02455677072862641</v>
       </c>
       <c r="D49">
-        <v>12.10535626544455</v>
+        <v>8.22757567411438</v>
       </c>
       <c r="E49">
-        <v>3.734507704779326</v>
+        <v>2.538210695569874</v>
       </c>
       <c r="F49">
-        <v>3.157206119853494</v>
+        <v>2.145839552365931</v>
       </c>
       <c r="G49">
-        <v>46.54317100927906</v>
+        <v>31.63372090792632</v>
       </c>
       <c r="H49">
-        <v>0.5714485420170028</v>
+        <v>0.3883930402551073</v>
       </c>
       <c r="I49">
-        <v>335.2937184476256</v>
+        <v>227.8870923822193</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_VOC.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>237.0769896195313</v>
+        <v>348.8149529530085</v>
       </c>
       <c r="C2">
-        <v>0.03683515609293963</v>
+        <v>0.05419612110055635</v>
       </c>
       <c r="D2">
-        <v>10.97010089881918</v>
+        <v>16.14047502059273</v>
       </c>
       <c r="E2">
-        <v>2.538210695569874</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F2">
-        <v>3.594281250212935</v>
+        <v>5.288320250754603</v>
       </c>
       <c r="G2">
-        <v>29.8762919685971</v>
+        <v>43.95743928654137</v>
       </c>
       <c r="H2">
-        <v>0.7213013604737706</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I2">
-        <v>284.8140109492971</v>
+        <v>419.0511529148088</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>244.8578151328314</v>
+        <v>360.2629989641922</v>
       </c>
       <c r="C3">
-        <v>0.04067215151928749</v>
+        <v>0.05984155038186432</v>
       </c>
       <c r="D3">
-        <v>11.14150872536323</v>
+        <v>16.3926699427895</v>
       </c>
       <c r="E3">
-        <v>2.538210695569874</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F3">
-        <v>3.469107276324923</v>
+        <v>5.104149893763148</v>
       </c>
       <c r="G3">
-        <v>23.72529068094476</v>
+        <v>34.90737825695931</v>
       </c>
       <c r="H3">
-        <v>0.6658166404373267</v>
+        <v>0.9796260720291473</v>
       </c>
       <c r="I3">
-        <v>286.4384213029907</v>
+        <v>421.4411723848945</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>248.0336622811171</v>
+        <v>364.935670805492</v>
       </c>
       <c r="C4">
-        <v>0.03760255517820921</v>
+        <v>0.05532520695681795</v>
       </c>
       <c r="D4">
-        <v>11.31291655190728</v>
+        <v>16.64486486498625</v>
       </c>
       <c r="E4">
-        <v>2.397198990260435</v>
+        <v>3.527035054513811</v>
       </c>
       <c r="F4">
-        <v>3.236641324818613</v>
+        <v>4.762119230779019</v>
       </c>
       <c r="G4">
-        <v>23.72529068094476</v>
+        <v>34.90737825695931</v>
       </c>
       <c r="H4">
-        <v>0.6103319204008828</v>
+        <v>0.8979905660267186</v>
       </c>
       <c r="I4">
-        <v>289.3536443046273</v>
+        <v>425.7303839857138</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>268.2002916727317</v>
+        <v>394.6071369977438</v>
       </c>
       <c r="C5">
-        <v>0.03146336249605259</v>
+        <v>0.04629252010672522</v>
       </c>
       <c r="D5">
-        <v>11.82714003153943</v>
+        <v>17.40144963157654</v>
       </c>
       <c r="E5">
-        <v>4.089339453973683</v>
+        <v>6.016706857700027</v>
       </c>
       <c r="F5">
-        <v>3.182995336009466</v>
+        <v>4.683189077782683</v>
       </c>
       <c r="G5">
-        <v>22.84657621128013</v>
+        <v>33.61451239559047</v>
       </c>
       <c r="H5">
-        <v>0.554847200364439</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I5">
-        <v>310.732653268395</v>
+        <v>457.1856425405245</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>306.1516650947462</v>
+        <v>450.4455655012729</v>
       </c>
       <c r="C6">
-        <v>0.02992856432551345</v>
+        <v>0.04403434839420205</v>
       </c>
       <c r="D6">
-        <v>10.79869307227512</v>
+        <v>15.88828009839598</v>
       </c>
       <c r="E6">
-        <v>9.024749139803991</v>
+        <v>13.27824961699316</v>
       </c>
       <c r="F6">
-        <v>2.682299440457415</v>
+        <v>3.946507649816867</v>
       </c>
       <c r="G6">
-        <v>11.42328810564007</v>
+        <v>16.80725619779523</v>
       </c>
       <c r="H6">
-        <v>0.4993624803279952</v>
+        <v>0.7347195540218606</v>
       </c>
       <c r="I6">
-        <v>340.6099858975763</v>
+        <v>501.1446129666901</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>326.7946715586039</v>
+        <v>480.8179324697197</v>
       </c>
       <c r="C7">
-        <v>0.01151098627904363</v>
+        <v>0.01693628784392387</v>
       </c>
       <c r="D7">
-        <v>7.370536541394135</v>
+        <v>10.84438165446074</v>
       </c>
       <c r="E7">
-        <v>9.447784255732309</v>
+        <v>13.90066756778972</v>
       </c>
       <c r="F7">
-        <v>1.734553638162461</v>
+        <v>2.552074946881574</v>
       </c>
       <c r="G7">
-        <v>11.42328810564007</v>
+        <v>16.80725619779523</v>
       </c>
       <c r="H7">
-        <v>0.554847200364439</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I7">
-        <v>357.3371922861763</v>
+        <v>525.7556041845152</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>248.6688317107743</v>
+        <v>365.8702051737516</v>
       </c>
       <c r="C8">
-        <v>0.01458058262012193</v>
+        <v>0.02145263126897022</v>
       </c>
       <c r="D8">
-        <v>10.11306176609892</v>
+        <v>14.87950040960893</v>
       </c>
       <c r="E8">
-        <v>5.640468212377495</v>
+        <v>8.298906010620723</v>
       </c>
       <c r="F8">
-        <v>1.287503731419559</v>
+        <v>1.894323671912096</v>
       </c>
       <c r="G8">
-        <v>10.54457363597544</v>
+        <v>15.51439033642637</v>
       </c>
       <c r="H8">
-        <v>0.1109694400728878</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I8">
-        <v>276.3799890793388</v>
+        <v>406.6420492455936</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>198.0140696956166</v>
+        <v>291.3410893050245</v>
       </c>
       <c r="C9">
-        <v>0.01534798170539151</v>
+        <v>0.02258171712523182</v>
       </c>
       <c r="D9">
-        <v>6.342089582129836</v>
+        <v>9.33121212128018</v>
       </c>
       <c r="E9">
-        <v>10.71688960351724</v>
+        <v>15.76792142017938</v>
       </c>
       <c r="F9">
-        <v>0.5901058769006311</v>
+        <v>0.8682316829597108</v>
       </c>
       <c r="G9">
-        <v>12.30200257530469</v>
+        <v>18.10012205916408</v>
       </c>
       <c r="H9">
-        <v>0.1664541601093317</v>
+        <v>0.2449065180072868</v>
       </c>
       <c r="I9">
-        <v>228.1469594752838</v>
+        <v>335.6760648237404</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>164.032505208959</v>
+        <v>241.3435006031197</v>
       </c>
       <c r="C10">
-        <v>0.007673990852695755</v>
+        <v>0.01129085856261591</v>
       </c>
       <c r="D10">
-        <v>5.31364262286554</v>
+        <v>7.818042588099604</v>
       </c>
       <c r="E10">
-        <v>5.358444801758622</v>
+        <v>7.88396071008969</v>
       </c>
       <c r="F10">
-        <v>0.5543418843611989</v>
+        <v>0.8156115809621522</v>
       </c>
       <c r="G10">
-        <v>14.93814598429855</v>
+        <v>21.97871964327069</v>
       </c>
       <c r="H10">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I10">
-        <v>190.2602392131321</v>
+        <v>279.9327614901069</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>116.553590342087</v>
+        <v>171.487056575692</v>
       </c>
       <c r="C11">
-        <v>0.01534798170539151</v>
+        <v>0.02258171712523182</v>
       </c>
       <c r="D11">
-        <v>2.742525224704794</v>
+        <v>4.035118755148183</v>
       </c>
       <c r="E11">
-        <v>2.538210695569874</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F11">
-        <v>0.6079878731703475</v>
+        <v>0.8945417339584898</v>
       </c>
       <c r="G11">
-        <v>10.54457363597544</v>
+        <v>15.51439033642637</v>
       </c>
       <c r="H11">
-        <v>0.2219388801457755</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I11">
-        <v>133.2241746333587</v>
+        <v>196.0147388471393</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>71.61535319384367</v>
+        <v>105.368750021304</v>
       </c>
       <c r="C12">
-        <v>0.01534798170539151</v>
+        <v>0.02258171712523182</v>
       </c>
       <c r="D12">
-        <v>1.542670438896447</v>
+        <v>2.269754299770854</v>
       </c>
       <c r="E12">
-        <v>1.269105347784937</v>
+        <v>1.867253852389663</v>
       </c>
       <c r="F12">
-        <v>0.339757929124606</v>
+        <v>0.4998909689768032</v>
       </c>
       <c r="G12">
-        <v>7.908430226981579</v>
+        <v>11.63579275231976</v>
       </c>
       <c r="H12">
-        <v>0.1109694400728878</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I12">
-        <v>82.80163455840953</v>
+        <v>121.8272946238912</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>50.81355437257203</v>
+        <v>74.76274946079221</v>
       </c>
       <c r="C13">
-        <v>0.02302197255808727</v>
+        <v>0.03387257568784773</v>
       </c>
       <c r="D13">
-        <v>1.714078265440496</v>
+        <v>2.521949221967614</v>
       </c>
       <c r="E13">
-        <v>0.8460702318566243</v>
+        <v>1.244835901593109</v>
       </c>
       <c r="F13">
-        <v>0.3576399253943219</v>
+        <v>0.5262010199755821</v>
       </c>
       <c r="G13">
-        <v>9.66585916631082</v>
+        <v>14.2215244750575</v>
       </c>
       <c r="I13">
-        <v>63.42022393413238</v>
+        <v>93.31113265507388</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>33.50518741441468</v>
+        <v>49.29668792570985</v>
       </c>
       <c r="C14">
-        <v>0.02455677072862641</v>
+        <v>0.03613074740037091</v>
       </c>
       <c r="D14">
-        <v>1.028446959264298</v>
+        <v>1.513169533180569</v>
       </c>
       <c r="E14">
-        <v>0.4230351159283122</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F14">
-        <v>0.3934039179337541</v>
+        <v>0.5788211219731407</v>
       </c>
       <c r="G14">
-        <v>14.05943151463393</v>
+        <v>20.6858537819018</v>
       </c>
       <c r="H14">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I14">
-        <v>49.48954641294005</v>
+        <v>72.81471656696472</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>25.56556954370028</v>
+        <v>37.61500832246106</v>
       </c>
       <c r="C15">
-        <v>0.01841757804646981</v>
+        <v>0.02709806055027818</v>
       </c>
       <c r="D15">
-        <v>1.885486091984546</v>
+        <v>2.774144144164376</v>
       </c>
       <c r="E15">
-        <v>0.5640468212377494</v>
+        <v>0.8298906010620722</v>
       </c>
       <c r="F15">
-        <v>0.3039939365851738</v>
+        <v>0.4472708669792449</v>
       </c>
       <c r="G15">
-        <v>12.30200257530469</v>
+        <v>18.10012205916408</v>
       </c>
       <c r="H15">
-        <v>0.1109694400728878</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I15">
-        <v>40.7504859869318</v>
+        <v>59.95680506638597</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>23.34247653990026</v>
+        <v>34.34413803355141</v>
       </c>
       <c r="C16">
-        <v>0.00690659176742618</v>
+        <v>0.01016177270635432</v>
       </c>
       <c r="D16">
-        <v>2.228301745072646</v>
+        <v>3.278533988557899</v>
       </c>
       <c r="E16">
-        <v>0.4230351159283122</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F16">
-        <v>0.2861119403154576</v>
+        <v>0.420960815980466</v>
       </c>
       <c r="G16">
-        <v>10.54457363597544</v>
+        <v>15.51439033642637</v>
       </c>
       <c r="H16">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I16">
-        <v>36.88689028899599</v>
+        <v>54.27223840402147</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>47.0025377946291</v>
+        <v>69.15554325123276</v>
       </c>
       <c r="C17">
-        <v>0.00997618810850448</v>
+        <v>0.01467811613140068</v>
       </c>
       <c r="D17">
-        <v>3.428156530880992</v>
+        <v>5.043898443935229</v>
       </c>
       <c r="E17">
-        <v>0.4230351159283122</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F17">
-        <v>0.6616338619794954</v>
+        <v>0.9734718869548276</v>
       </c>
       <c r="G17">
-        <v>15.81686045396316</v>
+        <v>23.27158550463953</v>
       </c>
       <c r="H17">
-        <v>0.1664541601093317</v>
+        <v>0.2449065180072868</v>
       </c>
       <c r="I17">
-        <v>67.50865410559889</v>
+        <v>99.3265016716976</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>103.5326170341155</v>
+        <v>152.3291020263642</v>
       </c>
       <c r="C18">
-        <v>0.006139192682156604</v>
+        <v>0.009032686850092727</v>
       </c>
       <c r="D18">
-        <v>5.485050449409589</v>
+        <v>8.070237510296366</v>
       </c>
       <c r="E18">
-        <v>6.768561854852995</v>
+        <v>9.958687212744872</v>
       </c>
       <c r="F18">
-        <v>1.519969682925868</v>
+        <v>2.236354334896225</v>
       </c>
       <c r="G18">
-        <v>28.99757749893247</v>
+        <v>42.66457342517247</v>
       </c>
       <c r="H18">
-        <v>0.1664541601093317</v>
+        <v>0.2449065180072868</v>
       </c>
       <c r="I18">
-        <v>146.4763698730279</v>
+        <v>215.5128937143315</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>182.2936263116021</v>
+        <v>268.2113636905918</v>
       </c>
       <c r="C19">
-        <v>0.01074358719377405</v>
+        <v>0.01580720198766227</v>
       </c>
       <c r="D19">
-        <v>10.11306176609892</v>
+        <v>14.87950040960893</v>
       </c>
       <c r="E19">
-        <v>13.9601588256343</v>
+        <v>20.53979237628631</v>
       </c>
       <c r="F19">
-        <v>2.575007462839118</v>
+        <v>3.788647343824192</v>
       </c>
       <c r="G19">
-        <v>51.84415371021259</v>
+        <v>76.27908582076294</v>
       </c>
       <c r="H19">
-        <v>0.554847200364439</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I19">
-        <v>261.3515988639453</v>
+        <v>384.5305519030861</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>246.9221157792171</v>
+        <v>363.300235661037</v>
       </c>
       <c r="C20">
-        <v>0.01151098627904363</v>
+        <v>0.01693628784392387</v>
       </c>
       <c r="D20">
-        <v>8.913206980290584</v>
+        <v>13.1141359542316</v>
       </c>
       <c r="E20">
-        <v>12.12700665661161</v>
+        <v>17.84264792283457</v>
       </c>
       <c r="F20">
-        <v>2.503479477760254</v>
+        <v>3.683407139829076</v>
       </c>
       <c r="G20">
-        <v>44.81443795289558</v>
+        <v>65.93615892981201</v>
       </c>
       <c r="H20">
-        <v>0.554847200364439</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I20">
-        <v>315.8466050334187</v>
+        <v>464.7098769556125</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>195.7909766918166</v>
+        <v>288.0702190161148</v>
       </c>
       <c r="C21">
-        <v>0.01227838536431321</v>
+        <v>0.01806537370018545</v>
       </c>
       <c r="D21">
-        <v>4.456603490145292</v>
+        <v>6.557067977115799</v>
       </c>
       <c r="E21">
-        <v>5.076421391139747</v>
+        <v>7.469015409558653</v>
       </c>
       <c r="F21">
-        <v>1.967019589668771</v>
+        <v>2.894105609865703</v>
       </c>
       <c r="G21">
-        <v>32.51243537759095</v>
+        <v>47.83603687064794</v>
       </c>
       <c r="H21">
-        <v>0.2219388801457755</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I21">
-        <v>240.0376738058714</v>
+        <v>353.1710522810129</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>231.8368418248598</v>
+        <v>341.1050444148642</v>
       </c>
       <c r="C22">
-        <v>0.03836995426347878</v>
+        <v>0.05645429281307954</v>
       </c>
       <c r="D22">
-        <v>13.88403395006803</v>
+        <v>20.42778869793768</v>
       </c>
       <c r="E22">
-        <v>5.217433096449183</v>
+        <v>7.676488059824171</v>
       </c>
       <c r="F22">
-        <v>3.719455224100948</v>
+        <v>5.472490607746055</v>
       </c>
       <c r="G22">
-        <v>58.87386946752958</v>
+        <v>86.62201271171381</v>
       </c>
       <c r="H22">
-        <v>0.2219388801457755</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I22">
-        <v>313.7919423974168</v>
+        <v>461.6868208089087</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>208.3355729275452</v>
+        <v>306.5272727892479</v>
       </c>
       <c r="C23">
-        <v>0.03990475243401792</v>
+        <v>0.05871246452560273</v>
       </c>
       <c r="D23">
-        <v>11.31291655190728</v>
+        <v>16.64486486498625</v>
       </c>
       <c r="E23">
-        <v>3.243269222117061</v>
+        <v>4.771870956106921</v>
       </c>
       <c r="F23">
-        <v>4.023449160686122</v>
+        <v>5.9197614747253</v>
       </c>
       <c r="G23">
-        <v>44.81443795289558</v>
+        <v>65.93615892981201</v>
       </c>
       <c r="H23">
-        <v>0.2774236001822195</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I23">
-        <v>272.0469741677674</v>
+        <v>400.2668190094162</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>218.657076159474</v>
+        <v>321.7134562734711</v>
       </c>
       <c r="C24">
-        <v>0.03990475243401792</v>
+        <v>0.05871246452560273</v>
       </c>
       <c r="D24">
-        <v>10.11306176609892</v>
+        <v>14.87950040960893</v>
       </c>
       <c r="E24">
-        <v>3.102257516807622</v>
+        <v>4.564398305841399</v>
       </c>
       <c r="F24">
-        <v>3.75521921664038</v>
+        <v>5.525110709743614</v>
       </c>
       <c r="G24">
-        <v>39.5421511349079</v>
+        <v>58.17896376159887</v>
       </c>
       <c r="H24">
-        <v>0.554847200364439</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I24">
-        <v>275.7645177467272</v>
+        <v>405.7364969848138</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>220.5625844484453</v>
+        <v>324.517059378251</v>
       </c>
       <c r="C25">
-        <v>0.03069596341078302</v>
+        <v>0.04516343425046363</v>
       </c>
       <c r="D25">
-        <v>10.62728524573108</v>
+        <v>15.63608517619921</v>
       </c>
       <c r="E25">
-        <v>2.961245811498186</v>
+        <v>4.356925655575882</v>
       </c>
       <c r="F25">
-        <v>2.968411380772872</v>
+        <v>4.367468465797335</v>
       </c>
       <c r="G25">
-        <v>36.90600772591407</v>
+        <v>54.30036617749226</v>
       </c>
       <c r="H25">
-        <v>0.3883930402551073</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I25">
-        <v>274.4446236160274</v>
+        <v>403.7945168295832</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>226.9142787450169</v>
+        <v>333.8624030608501</v>
       </c>
       <c r="C26">
-        <v>0.03299816066659174</v>
+        <v>0.04855069181924841</v>
       </c>
       <c r="D26">
-        <v>9.427430459922729</v>
+        <v>13.87072072082189</v>
       </c>
       <c r="E26">
-        <v>1.692140463713249</v>
+        <v>2.489671803186218</v>
       </c>
       <c r="F26">
-        <v>3.790983209179813</v>
+        <v>5.577730811741173</v>
       </c>
       <c r="G26">
-        <v>49.20801030121875</v>
+        <v>72.40048823665633</v>
       </c>
       <c r="H26">
-        <v>0.4438777602915511</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I26">
-        <v>291.5097191000096</v>
+        <v>428.9026493730943</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>238.1885361214313</v>
+        <v>350.4503880974631</v>
       </c>
       <c r="C27">
-        <v>0.02609156889916557</v>
+        <v>0.03838891911289408</v>
       </c>
       <c r="D27">
-        <v>13.19840264389182</v>
+        <v>19.41900900915063</v>
       </c>
       <c r="E27">
-        <v>3.384280927426497</v>
+        <v>4.979343606372436</v>
       </c>
       <c r="F27">
-        <v>3.182995336009466</v>
+        <v>4.683189077782683</v>
       </c>
       <c r="G27">
-        <v>19.33171833262164</v>
+        <v>28.44304895011501</v>
       </c>
       <c r="H27">
-        <v>0.3883930402551073</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I27">
-        <v>277.7004179705349</v>
+        <v>408.5848162020137</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>230.5665029655456</v>
+        <v>339.2359756783447</v>
       </c>
       <c r="C28">
-        <v>0.03990475243401792</v>
+        <v>0.05871246452560273</v>
       </c>
       <c r="D28">
-        <v>13.02699481734777</v>
+        <v>19.16681408695387</v>
       </c>
       <c r="E28">
-        <v>3.102257516807622</v>
+        <v>4.564398305841399</v>
       </c>
       <c r="F28">
-        <v>3.004175373312303</v>
+        <v>4.420088567794889</v>
       </c>
       <c r="G28">
-        <v>39.5421511349079</v>
+        <v>58.17896376159887</v>
       </c>
       <c r="H28">
-        <v>0.8877555205831021</v>
+        <v>1.306168096038863</v>
       </c>
       <c r="I28">
-        <v>290.1697420809382</v>
+        <v>426.9311209610982</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>253.5913947906171</v>
+        <v>373.112846527766</v>
       </c>
       <c r="C29">
-        <v>0.03453295883713089</v>
+        <v>0.05080886353177159</v>
       </c>
       <c r="D29">
-        <v>12.68417916425967</v>
+        <v>18.66242424256036</v>
       </c>
       <c r="E29">
-        <v>4.089339453973683</v>
+        <v>6.016706857700027</v>
       </c>
       <c r="F29">
-        <v>2.986293377042588</v>
+        <v>4.393778516796111</v>
       </c>
       <c r="G29">
-        <v>23.72529068094476</v>
+        <v>34.90737825695931</v>
       </c>
       <c r="H29">
-        <v>1.387118000911097</v>
+        <v>2.040887650060724</v>
       </c>
       <c r="I29">
-        <v>298.498148426586</v>
+        <v>439.1848309153742</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>317.7435071859894</v>
+        <v>467.500817722016</v>
       </c>
       <c r="C30">
-        <v>0.01688277987593066</v>
+        <v>0.024839888837755</v>
       </c>
       <c r="D30">
-        <v>8.056167847570336</v>
+        <v>11.85316134324779</v>
       </c>
       <c r="E30">
-        <v>6.768561854852995</v>
+        <v>9.958687212744872</v>
       </c>
       <c r="F30">
-        <v>2.592889459108835</v>
+        <v>3.814957394822971</v>
       </c>
       <c r="G30">
-        <v>18.45300386295704</v>
+        <v>27.15018308874613</v>
       </c>
       <c r="H30">
-        <v>0.7213013604737706</v>
+        <v>1.061261578031576</v>
       </c>
       <c r="I30">
-        <v>354.3523143508283</v>
+        <v>521.363908228447</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>330.6056881365465</v>
+        <v>486.4251386792791</v>
       </c>
       <c r="C31">
-        <v>0.02225457347281769</v>
+        <v>0.03274348983158614</v>
       </c>
       <c r="D31">
-        <v>10.11306176609892</v>
+        <v>14.87950040960893</v>
       </c>
       <c r="E31">
-        <v>9.87081937166062</v>
+        <v>14.52308551858627</v>
       </c>
       <c r="F31">
-        <v>1.984901585938487</v>
+        <v>2.920415660864481</v>
       </c>
       <c r="G31">
-        <v>16.69557492362779</v>
+        <v>24.56445136600841</v>
       </c>
       <c r="H31">
-        <v>0.2219388801457755</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I31">
-        <v>369.514239237491</v>
+        <v>543.6718771481885</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>261.5310126613317</v>
+        <v>384.7945261310148</v>
       </c>
       <c r="C32">
-        <v>0.01611538079066109</v>
+        <v>0.02371080298149341</v>
       </c>
       <c r="D32">
-        <v>8.570391327202483</v>
+        <v>12.60974610983807</v>
       </c>
       <c r="E32">
-        <v>6.627550149543556</v>
+        <v>9.751214562479355</v>
       </c>
       <c r="F32">
-        <v>1.394795709037855</v>
+        <v>2.052183977904771</v>
       </c>
       <c r="G32">
-        <v>13.18071704496931</v>
+        <v>19.39298792053295</v>
       </c>
       <c r="H32">
-        <v>0.4993624803279952</v>
+        <v>0.7347195540218606</v>
       </c>
       <c r="I32">
-        <v>291.8199447532035</v>
+        <v>429.3590890587733</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>218.9746608743025</v>
+        <v>322.1807234576013</v>
       </c>
       <c r="C33">
-        <v>0.02302197255808727</v>
+        <v>0.03387257568784773</v>
       </c>
       <c r="D33">
-        <v>6.684905235217935</v>
+        <v>9.835601965673701</v>
       </c>
       <c r="E33">
-        <v>9.024749139803991</v>
+        <v>13.27824961699316</v>
       </c>
       <c r="F33">
-        <v>0.8940998134858048</v>
+        <v>1.315502549938955</v>
       </c>
       <c r="G33">
-        <v>14.05943151463393</v>
+        <v>20.6858537819018</v>
       </c>
       <c r="H33">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I33">
-        <v>249.7163532700388</v>
+        <v>367.4114394537992</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>179.9117409503878</v>
+        <v>264.7068598096173</v>
       </c>
       <c r="C34">
-        <v>0.01534798170539151</v>
+        <v>0.02258171712523182</v>
       </c>
       <c r="D34">
-        <v>4.456603490145292</v>
+        <v>6.557067977115799</v>
       </c>
       <c r="E34">
-        <v>4.371362864592559</v>
+        <v>6.431652158231064</v>
       </c>
       <c r="F34">
-        <v>0.5722238806309152</v>
+        <v>0.8419216319609321</v>
       </c>
       <c r="G34">
-        <v>7.029715757316964</v>
+        <v>10.3429268909509</v>
       </c>
       <c r="H34">
-        <v>0.2219388801457755</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I34">
-        <v>196.5789338049246</v>
+        <v>289.2295522090109</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>127.1926782888443</v>
+        <v>187.1405072440455</v>
       </c>
       <c r="C35">
-        <v>0.01458058262012193</v>
+        <v>0.02145263126897022</v>
       </c>
       <c r="D35">
-        <v>4.285195663601241</v>
+        <v>6.304873054919034</v>
       </c>
       <c r="E35">
-        <v>2.397198990260435</v>
+        <v>3.527035054513811</v>
       </c>
       <c r="F35">
-        <v>0.4291679104731864</v>
+        <v>0.6314412239706987</v>
       </c>
       <c r="G35">
-        <v>11.42328810564007</v>
+        <v>16.80725619779523</v>
       </c>
       <c r="H35">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I35">
-        <v>145.7975942614758</v>
+        <v>214.5142009125157</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>80.03134813680091</v>
+        <v>117.7513304007477</v>
       </c>
       <c r="C36">
-        <v>0.02685896798443514</v>
+        <v>0.03951800496915568</v>
       </c>
       <c r="D36">
-        <v>1.714078265440496</v>
+        <v>2.521949221967614</v>
       </c>
       <c r="E36">
-        <v>1.269105347784937</v>
+        <v>1.867253852389663</v>
       </c>
       <c r="F36">
-        <v>0.3576399253943219</v>
+        <v>0.5262010199755821</v>
       </c>
       <c r="G36">
-        <v>7.908430226981579</v>
+        <v>11.63579275231976</v>
       </c>
       <c r="H36">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I36">
-        <v>91.36294559042314</v>
+        <v>134.423680758372</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>60.81747288967214</v>
+        <v>89.48166576088569</v>
       </c>
       <c r="C37">
-        <v>0.03223076158132217</v>
+        <v>0.04742160596298682</v>
       </c>
       <c r="D37">
-        <v>1.714078265440496</v>
+        <v>2.521949221967614</v>
       </c>
       <c r="E37">
-        <v>0.5640468212377494</v>
+        <v>0.8298906010620722</v>
       </c>
       <c r="F37">
-        <v>0.3039939365851738</v>
+        <v>0.4472708669792449</v>
       </c>
       <c r="G37">
-        <v>8.787144696646211</v>
+        <v>12.92865861368864</v>
       </c>
       <c r="H37">
-        <v>0.2219388801457755</v>
+        <v>0.3265420240097158</v>
       </c>
       <c r="I37">
-        <v>72.44090625130887</v>
+        <v>106.583398694556</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>34.14035684407185</v>
+        <v>50.23122229396977</v>
       </c>
       <c r="C38">
-        <v>0.02225457347281769</v>
+        <v>0.03274348983158614</v>
       </c>
       <c r="D38">
-        <v>1.371262612352397</v>
+        <v>2.017559377574091</v>
       </c>
       <c r="E38">
-        <v>0.2820234106188747</v>
+        <v>0.4149453005310361</v>
       </c>
       <c r="F38">
-        <v>0.3576399253943219</v>
+        <v>0.5262010199755821</v>
       </c>
       <c r="G38">
-        <v>8.787144696646211</v>
+        <v>12.92865861368864</v>
       </c>
       <c r="H38">
-        <v>0.1109694400728878</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I38">
-        <v>45.07165150262935</v>
+        <v>66.31460110757557</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>22.86609946765738</v>
+        <v>33.64323725735648</v>
       </c>
       <c r="C39">
-        <v>0.01611538079066109</v>
+        <v>0.02371080298149341</v>
       </c>
       <c r="D39">
-        <v>2.056893918528595</v>
+        <v>3.026339066361138</v>
       </c>
       <c r="E39">
-        <v>0.1410117053094374</v>
+        <v>0.2074726502655181</v>
       </c>
       <c r="F39">
-        <v>0.339757929124606</v>
+        <v>0.4998909689768032</v>
       </c>
       <c r="G39">
-        <v>8.787144696646211</v>
+        <v>12.92865861368864</v>
       </c>
       <c r="H39">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I39">
-        <v>34.26250781809334</v>
+        <v>50.41094486563249</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>23.02489182507169</v>
+        <v>33.87687084942146</v>
       </c>
       <c r="C40">
-        <v>0.008441389937965331</v>
+        <v>0.0124199444188775</v>
       </c>
       <c r="D40">
-        <v>1.885486091984546</v>
+        <v>2.774144144164376</v>
       </c>
       <c r="E40">
-        <v>0.4230351159283122</v>
+        <v>0.6224179507965545</v>
       </c>
       <c r="F40">
-        <v>0.3755219216640379</v>
+        <v>0.5525110709743611</v>
       </c>
       <c r="G40">
-        <v>11.42328810564007</v>
+        <v>16.80725619779523</v>
       </c>
       <c r="H40">
-        <v>0.1109694400728878</v>
+        <v>0.1632710120048579</v>
       </c>
       <c r="I40">
-        <v>37.2516338902995</v>
+        <v>54.80889116957572</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>43.03272885927195</v>
+        <v>63.3147034496084</v>
       </c>
       <c r="C41">
-        <v>0.008441389937965331</v>
+        <v>0.0124199444188775</v>
       </c>
       <c r="D41">
-        <v>2.399709571616696</v>
+        <v>3.530728910754663</v>
       </c>
       <c r="E41">
-        <v>0.7050585265471869</v>
+        <v>1.03736325132759</v>
       </c>
       <c r="F41">
-        <v>0.9119818097555209</v>
+        <v>1.341812600937735</v>
       </c>
       <c r="G41">
-        <v>17.57428939329242</v>
+        <v>25.85731722737728</v>
       </c>
       <c r="H41">
-        <v>0.05548472003644388</v>
+        <v>0.08163550600242894</v>
       </c>
       <c r="I41">
-        <v>64.68769427045818</v>
+        <v>95.17598089042697</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>111.7898196196584</v>
+        <v>164.4780488137428</v>
       </c>
       <c r="C42">
-        <v>0.008441389937965331</v>
+        <v>0.0124199444188775</v>
       </c>
       <c r="D42">
-        <v>4.456603490145292</v>
+        <v>6.557067977115799</v>
       </c>
       <c r="E42">
-        <v>5.922491622996372</v>
+        <v>8.713851311151764</v>
       </c>
       <c r="F42">
-        <v>1.806081623241326</v>
+        <v>2.657315150876692</v>
       </c>
       <c r="G42">
-        <v>32.51243537759095</v>
+        <v>47.83603687064794</v>
       </c>
       <c r="H42">
-        <v>0.4438777602915511</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I42">
-        <v>156.9397508838619</v>
+        <v>230.9078241159733</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>166.4143905701733</v>
+        <v>244.8480044840944</v>
       </c>
       <c r="C43">
-        <v>0.003836995426347878</v>
+        <v>0.005645429281307954</v>
       </c>
       <c r="D43">
-        <v>6.342089582129836</v>
+        <v>9.33121212128018</v>
       </c>
       <c r="E43">
-        <v>11.56295983537386</v>
+        <v>17.01275732177249</v>
       </c>
       <c r="F43">
-        <v>2.19948554117508</v>
+        <v>3.23613627284983</v>
       </c>
       <c r="G43">
-        <v>65.02487075518189</v>
+        <v>95.67207374129588</v>
       </c>
       <c r="H43">
-        <v>0.4993624803279952</v>
+        <v>0.7347195540218606</v>
       </c>
       <c r="I43">
-        <v>252.0469957597883</v>
+        <v>370.840548924596</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>266.4535757411746</v>
+        <v>392.0371674850289</v>
       </c>
       <c r="C44">
-        <v>0.01304578444958278</v>
+        <v>0.01919445955644704</v>
       </c>
       <c r="D44">
-        <v>8.056167847570336</v>
+        <v>11.85316134324779</v>
       </c>
       <c r="E44">
-        <v>12.97307688846824</v>
+        <v>19.08748382442768</v>
       </c>
       <c r="F44">
-        <v>2.61077145537855</v>
+        <v>3.841267445821751</v>
       </c>
       <c r="G44">
-        <v>47.45058136188953</v>
+        <v>69.81475651391862</v>
       </c>
       <c r="H44">
-        <v>0.9987249606559904</v>
+        <v>1.469439108043721</v>
       </c>
       <c r="I44">
-        <v>338.5559440395868</v>
+        <v>498.1224701800449</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>270.4233846765318</v>
+        <v>397.8780072866535</v>
       </c>
       <c r="C45">
-        <v>0.02685896798443514</v>
+        <v>0.03951800496915568</v>
       </c>
       <c r="D45">
-        <v>9.770246113010833</v>
+        <v>14.3751105652154</v>
       </c>
       <c r="E45">
-        <v>6.768561854852995</v>
+        <v>9.958687212744872</v>
       </c>
       <c r="F45">
-        <v>2.986293377042588</v>
+        <v>4.393778516796111</v>
       </c>
       <c r="G45">
-        <v>53.60158264954184</v>
+        <v>78.86481754350068</v>
       </c>
       <c r="H45">
-        <v>0.4438777602915511</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I45">
-        <v>344.0208053992561</v>
+        <v>506.1630031778991</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>232.1544265396884</v>
+        <v>341.5723115989943</v>
       </c>
       <c r="C46">
-        <v>0.04143955060455708</v>
+        <v>0.0609706362381259</v>
       </c>
       <c r="D46">
-        <v>15.08388873587637</v>
+        <v>22.19315315331501</v>
       </c>
       <c r="E46">
-        <v>6.204515033615245</v>
+        <v>9.128796611682798</v>
       </c>
       <c r="F46">
-        <v>3.272405317358045</v>
+        <v>4.814739332776577</v>
       </c>
       <c r="G46">
-        <v>57.11644052820033</v>
+        <v>84.03628098897615</v>
       </c>
       <c r="H46">
-        <v>0.4438777602915511</v>
+        <v>0.6530840480194315</v>
       </c>
       <c r="I46">
-        <v>314.3169934656345</v>
+        <v>462.4593363700024</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>172.7660848667448</v>
+        <v>254.1933481666934</v>
       </c>
       <c r="C47">
-        <v>0.03146336249605259</v>
+        <v>0.04629252010672522</v>
       </c>
       <c r="D47">
-        <v>8.741799153746534</v>
+        <v>12.86194103203484</v>
       </c>
       <c r="E47">
-        <v>2.679222400879311</v>
+        <v>3.941980355044845</v>
       </c>
       <c r="F47">
-        <v>2.896883395694008</v>
+        <v>4.262228261802217</v>
       </c>
       <c r="G47">
-        <v>38.66343666524328</v>
+        <v>56.88609790023002</v>
       </c>
       <c r="H47">
-        <v>0.2774236001822195</v>
+        <v>0.4081775300121447</v>
       </c>
       <c r="I47">
-        <v>226.0563134449863</v>
+        <v>332.6000657659242</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>181.3408721671164</v>
+        <v>266.8095621382022</v>
       </c>
       <c r="C48">
-        <v>0.03146336249605259</v>
+        <v>0.04629252010672522</v>
       </c>
       <c r="D48">
-        <v>7.713352194482234</v>
+        <v>11.34877149885426</v>
       </c>
       <c r="E48">
-        <v>2.679222400879311</v>
+        <v>3.941980355044845</v>
       </c>
       <c r="F48">
-        <v>2.718063432996848</v>
+        <v>3.999127751814425</v>
       </c>
       <c r="G48">
-        <v>34.26986431692018</v>
+        <v>50.42176859338569</v>
       </c>
       <c r="H48">
-        <v>0.554847200364439</v>
+        <v>0.8163550600242894</v>
       </c>
       <c r="I48">
-        <v>229.3076850752555</v>
+        <v>337.3838579174325</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>182.9287957412591</v>
+        <v>269.1458980588519</v>
       </c>
       <c r="C49">
-        <v>0.02455677072862641</v>
+        <v>0.03613074740037091</v>
       </c>
       <c r="D49">
-        <v>8.22757567411438</v>
+        <v>12.10535626544455</v>
       </c>
       <c r="E49">
-        <v>2.538210695569874</v>
+        <v>3.734507704779326</v>
       </c>
       <c r="F49">
-        <v>2.145839552365931</v>
+        <v>3.157206119853494</v>
       </c>
       <c r="G49">
-        <v>31.63372090792632</v>
+        <v>46.54317100927906</v>
       </c>
       <c r="H49">
-        <v>0.3883930402551073</v>
+        <v>0.5714485420170028</v>
       </c>
       <c r="I49">
-        <v>227.8870923822193</v>
+        <v>335.2937184476256</v>
       </c>
     </row>
   </sheetData>
